--- a/data/allampers.xlsx
+++ b/data/allampers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/worawittepsan/Documents/GitHub/Adjacency-and-Distance-Matrix-of-Thailand/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E197BB4-0710-6B43-BB91-0FE5E3CCA0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCFBF34-B60C-EC4B-8D04-B7AD0DCFB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1060" windowWidth="32640" windowHeight="16160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11860" yWindow="960" windowWidth="21220" windowHeight="16160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Provinces" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9467" uniqueCount="2985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9476" uniqueCount="2994">
   <si>
     <t>Amper</t>
   </si>
@@ -9017,6 +9017,33 @@
   </si>
   <si>
     <t>Lon</t>
+  </si>
+  <si>
+    <t>13.765096200668543, 100.49935721120431</t>
+  </si>
+  <si>
+    <t>13.777345569576957, 100.52093624797357</t>
+  </si>
+  <si>
+    <t>13.730903075589106, 100.5235481693973</t>
+  </si>
+  <si>
+    <t>13.779998407203031, 100.54271621357861</t>
+  </si>
+  <si>
+    <t>13.855727552946405, 100.86262861357989</t>
+  </si>
+  <si>
+    <t>13.708316681521428, 100.58374911172466</t>
+  </si>
+  <si>
+    <t>13.873676020006384, 100.59662351968223</t>
+  </si>
+  <si>
+    <t>13.702658132757334, 100.60205691172463</t>
+  </si>
+  <si>
+    <t>13.765991079203733, 100.6474855828894</t>
   </si>
 </sst>
 </file>
@@ -27984,8 +28011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FAF90B-3526-FB4F-B50D-B62A3C57604B}">
   <dimension ref="A1:G929"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27994,6 +28021,7 @@
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="5" width="46" customWidth="1"/>
+    <col min="6" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -28031,7 +28059,7 @@
         <v>472</v>
       </c>
       <c r="D2" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A2 &amp; " "&amp;C2</f>
+        <f t="shared" ref="D2:E65" si="0">"ที่ว่าการอำเภอ"&amp;A2 &amp; " "&amp;C2</f>
         <v>ที่ว่าการอำเภอเมืองกระบี่ กระบี่</v>
       </c>
       <c r="E2" t="s">
@@ -28056,7 +28084,7 @@
         <v>472</v>
       </c>
       <c r="D3" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A3 &amp; " "&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอเขาพนม กระบี่</v>
       </c>
       <c r="E3" t="s">
@@ -28081,7 +28109,7 @@
         <v>472</v>
       </c>
       <c r="D4" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A4 &amp; " "&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอเกาะลันตา กระบี่</v>
       </c>
       <c r="E4" t="s">
@@ -28106,7 +28134,7 @@
         <v>472</v>
       </c>
       <c r="D5" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A5 &amp; " "&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอคลองท่อม กระบี่</v>
       </c>
       <c r="E5" t="s">
@@ -28131,7 +28159,7 @@
         <v>472</v>
       </c>
       <c r="D6" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A6 &amp; " "&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภออ่าวลึก กระบี่</v>
       </c>
       <c r="E6" t="s">
@@ -28156,7 +28184,7 @@
         <v>472</v>
       </c>
       <c r="D7" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A7 &amp; " "&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอปลายพระยา กระบี่</v>
       </c>
       <c r="E7" t="s">
@@ -28181,7 +28209,7 @@
         <v>472</v>
       </c>
       <c r="D8" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A8 &amp; " "&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอลำทับ กระบี่</v>
       </c>
       <c r="E8" t="s">
@@ -28206,7 +28234,7 @@
         <v>472</v>
       </c>
       <c r="D9" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A9 &amp; " "&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอเหนือคลอง กระบี่</v>
       </c>
       <c r="E9" t="s">
@@ -28231,8 +28259,18 @@
         <v>3</v>
       </c>
       <c r="D10" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A10 &amp; " "&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอพระนคร กรุงเทพมหานคร</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2985</v>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" ref="F10:G10">_xlfn.TEXTSPLIT(E10, ", ")</f>
+        <v>13.765096200668543</v>
+      </c>
+      <c r="G10" t="str">
+        <v>100.49935721120431</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -28246,8 +28284,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A11 &amp; " "&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอดุสิต กรุงเทพมหานคร</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F11" t="str" cm="1">
+        <f t="array" ref="F11:G11">_xlfn.TEXTSPLIT(E11, ", ")</f>
+        <v>13.777345569576957</v>
+      </c>
+      <c r="G11" t="str">
+        <v>100.52093624797357</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -28261,8 +28309,18 @@
         <v>3</v>
       </c>
       <c r="D12" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A12 &amp; " "&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางรัก กรุงเทพมหานคร</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F12" t="str" cm="1">
+        <f t="array" ref="F12:G12">_xlfn.TEXTSPLIT(E12, ", ")</f>
+        <v>13.730903075589106</v>
+      </c>
+      <c r="G12" t="str">
+        <v>100.5235481693973</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -28276,8 +28334,18 @@
         <v>3</v>
       </c>
       <c r="D13" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A13 &amp; " "&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอพญาไท กรุงเทพมหานคร</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F13" t="str" cm="1">
+        <f t="array" ref="F13:G13">_xlfn.TEXTSPLIT(E13, ", ")</f>
+        <v>13.779998407203031</v>
+      </c>
+      <c r="G13" t="str">
+        <v>100.54271621357861</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -28291,8 +28359,18 @@
         <v>3</v>
       </c>
       <c r="D14" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A14 &amp; " "&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอหนองจอก กรุงเทพมหานคร</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F14" t="str" cm="1">
+        <f t="array" ref="F14:G14">_xlfn.TEXTSPLIT(E14, ", ")</f>
+        <v>13.855727552946405</v>
+      </c>
+      <c r="G14" t="str">
+        <v>100.86262861357989</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -28306,8 +28384,18 @@
         <v>3</v>
       </c>
       <c r="D15" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A15 &amp; " "&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอคลองเตย กรุงเทพมหานคร</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" ref="F15:G15">_xlfn.TEXTSPLIT(E15, ", ")</f>
+        <v>13.708316681521428</v>
+      </c>
+      <c r="G15" t="str">
+        <v>100.58374911172466</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -28321,11 +28409,21 @@
         <v>3</v>
       </c>
       <c r="D16" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A16 &amp; " "&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางเขน กรุงเทพมหานคร</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>2991</v>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" ref="F16:G16">_xlfn.TEXTSPLIT(E16, ", ")</f>
+        <v>13.873676020006384</v>
+      </c>
+      <c r="G16" t="str">
+        <v>100.59662351968223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -28336,11 +28434,21 @@
         <v>3</v>
       </c>
       <c r="D17" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A17 &amp; " "&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอพระโขนง กรุงเทพมหานคร</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>2992</v>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" ref="F17:G17">_xlfn.TEXTSPLIT(E17, ", ")</f>
+        <v>13.702658132757334</v>
+      </c>
+      <c r="G17" t="str">
+        <v>100.60205691172463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -28351,11 +28459,21 @@
         <v>3</v>
       </c>
       <c r="D18" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A18 &amp; " "&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางกะปิ กรุงเทพมหานคร</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F18" t="str" cm="1">
+        <f t="array" ref="F18:G18">_xlfn.TEXTSPLIT(E18, ", ")</f>
+        <v>13.765991079203733</v>
+      </c>
+      <c r="G18" t="str">
+        <v>100.6474855828894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -28366,11 +28484,11 @@
         <v>3</v>
       </c>
       <c r="D19" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A19 &amp; " "&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอปทุมวัน กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -28381,11 +28499,11 @@
         <v>3</v>
       </c>
       <c r="D20" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A20 &amp; " "&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอป้อมปราบศัตรูพ่าย กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -28396,11 +28514,11 @@
         <v>3</v>
       </c>
       <c r="D21" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A21 &amp; " "&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอมีนบุรี กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -28411,11 +28529,11 @@
         <v>3</v>
       </c>
       <c r="D22" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A22 &amp; " "&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอสัมพันธวงศ์ กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -28426,11 +28544,11 @@
         <v>3</v>
       </c>
       <c r="D23" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A23 &amp; " "&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอลาดกระบัง กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -28441,11 +28559,11 @@
         <v>3</v>
       </c>
       <c r="D24" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A24 &amp; " "&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอยานนาวา กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -28456,11 +28574,11 @@
         <v>3</v>
       </c>
       <c r="D25" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A25 &amp; " "&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอธนบุรี กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -28471,11 +28589,11 @@
         <v>3</v>
       </c>
       <c r="D26" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A26 &amp; " "&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางกอกใหญ่ กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -28486,11 +28604,11 @@
         <v>3</v>
       </c>
       <c r="D27" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A27 &amp; " "&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอห้วยขวาง กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -28501,11 +28619,11 @@
         <v>3</v>
       </c>
       <c r="D28" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A28 &amp; " "&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอคลองสาน กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -28516,11 +28634,11 @@
         <v>3</v>
       </c>
       <c r="D29" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A29 &amp; " "&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอตลิ่งชัน กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -28531,11 +28649,11 @@
         <v>3</v>
       </c>
       <c r="D30" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A30 &amp; " "&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางกอกน้อย กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -28546,11 +28664,11 @@
         <v>3</v>
       </c>
       <c r="D31" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A31 &amp; " "&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางขุนเทียน กรุงเทพมหานคร</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -28561,7 +28679,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A32 &amp; " "&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอภาษีเจริญ กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28576,7 +28694,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A33 &amp; " "&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอหนองแขม กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28591,7 +28709,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A34 &amp; " "&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอดอนเมือง กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28606,7 +28724,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A35 &amp; " "&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอราษฎร์บูรณะ กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28621,7 +28739,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A36 &amp; " "&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางพลัด กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28636,7 +28754,7 @@
         <v>3</v>
       </c>
       <c r="D37" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A37 &amp; " "&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอดินแดง กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28651,7 +28769,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A38 &amp; " "&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบึงกุ่ม กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28666,7 +28784,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A39 &amp; " "&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอสาทร กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28681,7 +28799,7 @@
         <v>3</v>
       </c>
       <c r="D40" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A40 &amp; " "&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางซื่อ กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28696,7 +28814,7 @@
         <v>3</v>
       </c>
       <c r="D41" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A41 &amp; " "&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอจตุจักร กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28711,7 +28829,7 @@
         <v>3</v>
       </c>
       <c r="D42" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A42 &amp; " "&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางคอแหลม กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28726,7 +28844,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A43 &amp; " "&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอประเวศ กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28741,7 +28859,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A44 &amp; " "&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอสวนหลวง กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28756,7 +28874,7 @@
         <v>3</v>
       </c>
       <c r="D45" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A45 &amp; " "&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอจอมทอง กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28771,7 +28889,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A46 &amp; " "&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอราชเทวี กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28786,7 +28904,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A47 &amp; " "&amp;C47</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอลาดพร้าว กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28801,7 +28919,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A48 &amp; " "&amp;C48</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอวัฒนา กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28816,7 +28934,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A49 &amp; " "&amp;C49</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางแค กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28831,7 +28949,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A50 &amp; " "&amp;C50</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอหลักสี่ กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28846,7 +28964,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A51 &amp; " "&amp;C51</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอสายไหม กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28861,7 +28979,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A52 &amp; " "&amp;C52</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอคันนายาว กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28876,7 +28994,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A53 &amp; " "&amp;C53</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอสะพานสูง กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28891,7 +29009,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A54 &amp; " "&amp;C54</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอวังทองหลาง กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28906,7 +29024,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A55 &amp; " "&amp;C55</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอคลองสามวา กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28921,7 +29039,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A56 &amp; " "&amp;C56</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางนา กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28936,7 +29054,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A57 &amp; " "&amp;C57</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอทวีวัฒนา กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28951,7 +29069,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A58 &amp; " "&amp;C58</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอทุ่งครุ กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28966,7 +29084,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A59 &amp; " "&amp;C59</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบางบอน กรุงเทพมหานคร</v>
       </c>
     </row>
@@ -28981,7 +29099,7 @@
         <v>969</v>
       </c>
       <c r="D60" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A60 &amp; " "&amp;C60</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอเมืองกาญจนบุรี กาญจนบุรี</v>
       </c>
     </row>
@@ -28996,7 +29114,7 @@
         <v>969</v>
       </c>
       <c r="D61" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A61 &amp; " "&amp;C61</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอไทรโยค กาญจนบุรี</v>
       </c>
     </row>
@@ -29011,7 +29129,7 @@
         <v>969</v>
       </c>
       <c r="D62" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A62 &amp; " "&amp;C62</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอบ่อพลอย กาญจนบุรี</v>
       </c>
     </row>
@@ -29026,7 +29144,7 @@
         <v>969</v>
       </c>
       <c r="D63" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A63 &amp; " "&amp;C63</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอศรีสวัสดิ์ กาญจนบุรี</v>
       </c>
     </row>
@@ -29041,7 +29159,7 @@
         <v>969</v>
       </c>
       <c r="D64" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A64 &amp; " "&amp;C64</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอท่ามะกา กาญจนบุรี</v>
       </c>
     </row>
@@ -29056,7 +29174,7 @@
         <v>969</v>
       </c>
       <c r="D65" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A65 &amp; " "&amp;C65</f>
+        <f t="shared" si="0"/>
         <v>ที่ว่าการอำเภอท่าม่วง กาญจนบุรี</v>
       </c>
     </row>
@@ -29071,7 +29189,7 @@
         <v>969</v>
       </c>
       <c r="D66" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A66 &amp; " "&amp;C66</f>
+        <f t="shared" ref="D66:D129" si="1">"ที่ว่าการอำเภอ"&amp;A66 &amp; " "&amp;C66</f>
         <v>ที่ว่าการอำเภอทองผาภูมิ กาญจนบุรี</v>
       </c>
     </row>
@@ -29086,7 +29204,7 @@
         <v>969</v>
       </c>
       <c r="D67" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A67 &amp; " "&amp;C67</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอสังขละบุรี กาญจนบุรี</v>
       </c>
     </row>
@@ -29101,7 +29219,7 @@
         <v>969</v>
       </c>
       <c r="D68" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A68 &amp; " "&amp;C68</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอพนมทวน กาญจนบุรี</v>
       </c>
     </row>
@@ -29116,7 +29234,7 @@
         <v>969</v>
       </c>
       <c r="D69" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A69 &amp; " "&amp;C69</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเลาขวัญ กาญจนบุรี</v>
       </c>
     </row>
@@ -29131,7 +29249,7 @@
         <v>969</v>
       </c>
       <c r="D70" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A70 &amp; " "&amp;C70</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอด่านมะขามเตี้ย กาญจนบุรี</v>
       </c>
     </row>
@@ -29146,7 +29264,7 @@
         <v>969</v>
       </c>
       <c r="D71" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A71 &amp; " "&amp;C71</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอหนองปรือ กาญจนบุรี</v>
       </c>
     </row>
@@ -29161,7 +29279,7 @@
         <v>969</v>
       </c>
       <c r="D72" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A72 &amp; " "&amp;C72</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอห้วยกระเจา กาญจนบุรี</v>
       </c>
     </row>
@@ -29176,7 +29294,7 @@
         <v>791</v>
       </c>
       <c r="D73" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A73 &amp; " "&amp;C73</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอกุฉินารายณ์ กาฬสินธุ์</v>
       </c>
     </row>
@@ -29191,7 +29309,7 @@
         <v>791</v>
       </c>
       <c r="D74" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A74 &amp; " "&amp;C74</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเขาวง กาฬสินธุ์</v>
       </c>
     </row>
@@ -29206,7 +29324,7 @@
         <v>791</v>
       </c>
       <c r="D75" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A75 &amp; " "&amp;C75</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอยางตลาด กาฬสินธุ์</v>
       </c>
     </row>
@@ -29221,7 +29339,7 @@
         <v>791</v>
       </c>
       <c r="D76" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A76 &amp; " "&amp;C76</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอห้วยเม็ก กาฬสินธุ์</v>
       </c>
     </row>
@@ -29236,7 +29354,7 @@
         <v>791</v>
       </c>
       <c r="D77" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A77 &amp; " "&amp;C77</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอสหัสขันธ์ กาฬสินธุ์</v>
       </c>
     </row>
@@ -29251,7 +29369,7 @@
         <v>791</v>
       </c>
       <c r="D78" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A78 &amp; " "&amp;C78</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอคำม่วง กาฬสินธุ์</v>
       </c>
     </row>
@@ -29266,7 +29384,7 @@
         <v>791</v>
       </c>
       <c r="D79" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A79 &amp; " "&amp;C79</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอท่าคันโท กาฬสินธุ์</v>
       </c>
     </row>
@@ -29281,7 +29399,7 @@
         <v>791</v>
       </c>
       <c r="D80" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A80 &amp; " "&amp;C80</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอหนองกุงศรี กาฬสินธุ์</v>
       </c>
     </row>
@@ -29296,7 +29414,7 @@
         <v>791</v>
       </c>
       <c r="D81" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A81 &amp; " "&amp;C81</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอสมเด็จ กาฬสินธุ์</v>
       </c>
     </row>
@@ -29311,7 +29429,7 @@
         <v>791</v>
       </c>
       <c r="D82" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A82 &amp; " "&amp;C82</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอห้วยผึ้ง กาฬสินธุ์</v>
       </c>
     </row>
@@ -29326,7 +29444,7 @@
         <v>791</v>
       </c>
       <c r="D83" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A83 &amp; " "&amp;C83</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอสามชัย กาฬสินธุ์</v>
       </c>
     </row>
@@ -29341,7 +29459,7 @@
         <v>791</v>
       </c>
       <c r="D84" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A84 &amp; " "&amp;C84</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอนาคู กาฬสินธุ์</v>
       </c>
     </row>
@@ -29356,7 +29474,7 @@
         <v>791</v>
       </c>
       <c r="D85" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A85 &amp; " "&amp;C85</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอดอนจาน กาฬสินธุ์</v>
       </c>
     </row>
@@ -29371,7 +29489,7 @@
         <v>791</v>
       </c>
       <c r="D86" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A86 &amp; " "&amp;C86</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอฆ้องชัย กาฬสินธุ์</v>
       </c>
     </row>
@@ -29386,7 +29504,7 @@
         <v>791</v>
       </c>
       <c r="D87" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A87 &amp; " "&amp;C87</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเมืองกาฬสินธุ์ กาฬสินธุ์</v>
       </c>
     </row>
@@ -29401,7 +29519,7 @@
         <v>791</v>
       </c>
       <c r="D88" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A88 &amp; " "&amp;C88</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอนามน กาฬสินธุ์</v>
       </c>
     </row>
@@ -29416,7 +29534,7 @@
         <v>791</v>
       </c>
       <c r="D89" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A89 &amp; " "&amp;C89</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอกมลาไสย กาฬสินธุ์</v>
       </c>
     </row>
@@ -29431,7 +29549,7 @@
         <v>791</v>
       </c>
       <c r="D90" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A90 &amp; " "&amp;C90</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอร่องคำ กาฬสินธุ์</v>
       </c>
     </row>
@@ -29446,7 +29564,7 @@
         <v>172</v>
       </c>
       <c r="D91" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A91 &amp; " "&amp;C91</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเมืองกำแพงเพชร กำแพงเพชร</v>
       </c>
     </row>
@@ -29461,7 +29579,7 @@
         <v>172</v>
       </c>
       <c r="D92" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A92 &amp; " "&amp;C92</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอไทรงาม กำแพงเพชร</v>
       </c>
     </row>
@@ -29476,7 +29594,7 @@
         <v>172</v>
       </c>
       <c r="D93" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A93 &amp; " "&amp;C93</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอคลองลาน กำแพงเพชร</v>
       </c>
     </row>
@@ -29491,7 +29609,7 @@
         <v>172</v>
       </c>
       <c r="D94" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A94 &amp; " "&amp;C94</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอขาณุวรลักษบุรี กำแพงเพชร</v>
       </c>
     </row>
@@ -29506,7 +29624,7 @@
         <v>172</v>
       </c>
       <c r="D95" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A95 &amp; " "&amp;C95</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอคลองขลุง กำแพงเพชร</v>
       </c>
     </row>
@@ -29521,7 +29639,7 @@
         <v>172</v>
       </c>
       <c r="D96" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A96 &amp; " "&amp;C96</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอพรานกระต่าย กำแพงเพชร</v>
       </c>
     </row>
@@ -29536,7 +29654,7 @@
         <v>172</v>
       </c>
       <c r="D97" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A97 &amp; " "&amp;C97</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอลานกระบือ กำแพงเพชร</v>
       </c>
     </row>
@@ -29551,7 +29669,7 @@
         <v>172</v>
       </c>
       <c r="D98" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A98 &amp; " "&amp;C98</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอทรายทองวัฒนา กำแพงเพชร</v>
       </c>
     </row>
@@ -29566,7 +29684,7 @@
         <v>172</v>
       </c>
       <c r="D99" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A99 &amp; " "&amp;C99</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอปางศิลาทอง กำแพงเพชร</v>
       </c>
     </row>
@@ -29581,7 +29699,7 @@
         <v>172</v>
       </c>
       <c r="D100" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A100 &amp; " "&amp;C100</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอบึงสามัคคี กำแพงเพชร</v>
       </c>
     </row>
@@ -29596,7 +29714,7 @@
         <v>172</v>
       </c>
       <c r="D101" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A101 &amp; " "&amp;C101</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอโกสัมพีนคร กำแพงเพชร</v>
       </c>
     </row>
@@ -29611,7 +29729,7 @@
         <v>651</v>
       </c>
       <c r="D102" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A102 &amp; " "&amp;C102</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเมืองขอนแก่น ขอนแก่น</v>
       </c>
     </row>
@@ -29626,7 +29744,7 @@
         <v>651</v>
       </c>
       <c r="D103" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A103 &amp; " "&amp;C103</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอบ้านฝาง ขอนแก่น</v>
       </c>
     </row>
@@ -29641,7 +29759,7 @@
         <v>651</v>
       </c>
       <c r="D104" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A104 &amp; " "&amp;C104</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอพระยืน ขอนแก่น</v>
       </c>
     </row>
@@ -29656,7 +29774,7 @@
         <v>651</v>
       </c>
       <c r="D105" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A105 &amp; " "&amp;C105</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอหนองเรือ ขอนแก่น</v>
       </c>
     </row>
@@ -29671,7 +29789,7 @@
         <v>651</v>
       </c>
       <c r="D106" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A106 &amp; " "&amp;C106</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอชุมแพ ขอนแก่น</v>
       </c>
     </row>
@@ -29686,7 +29804,7 @@
         <v>651</v>
       </c>
       <c r="D107" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A107 &amp; " "&amp;C107</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอสีชมพู ขอนแก่น</v>
       </c>
     </row>
@@ -29701,7 +29819,7 @@
         <v>651</v>
       </c>
       <c r="D108" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A108 &amp; " "&amp;C108</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอน้ำพอง ขอนแก่น</v>
       </c>
     </row>
@@ -29716,7 +29834,7 @@
         <v>651</v>
       </c>
       <c r="D109" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A109 &amp; " "&amp;C109</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภออุบลรัตน์ ขอนแก่น</v>
       </c>
     </row>
@@ -29731,7 +29849,7 @@
         <v>651</v>
       </c>
       <c r="D110" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A110 &amp; " "&amp;C110</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอกระนวน ขอนแก่น</v>
       </c>
     </row>
@@ -29746,7 +29864,7 @@
         <v>651</v>
       </c>
       <c r="D111" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A111 &amp; " "&amp;C111</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอบ้านไผ่ ขอนแก่น</v>
       </c>
     </row>
@@ -29761,7 +29879,7 @@
         <v>651</v>
       </c>
       <c r="D112" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A112 &amp; " "&amp;C112</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเปือยน้อย ขอนแก่น</v>
       </c>
     </row>
@@ -29776,7 +29894,7 @@
         <v>651</v>
       </c>
       <c r="D113" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A113 &amp; " "&amp;C113</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอพล ขอนแก่น</v>
       </c>
     </row>
@@ -29791,7 +29909,7 @@
         <v>651</v>
       </c>
       <c r="D114" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A114 &amp; " "&amp;C114</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอแวงใหญ่ ขอนแก่น</v>
       </c>
     </row>
@@ -29806,7 +29924,7 @@
         <v>651</v>
       </c>
       <c r="D115" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A115 &amp; " "&amp;C115</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอแวงน้อย ขอนแก่น</v>
       </c>
     </row>
@@ -29821,7 +29939,7 @@
         <v>651</v>
       </c>
       <c r="D116" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A116 &amp; " "&amp;C116</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอหนองสองห้อง ขอนแก่น</v>
       </c>
     </row>
@@ -29836,7 +29954,7 @@
         <v>651</v>
       </c>
       <c r="D117" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A117 &amp; " "&amp;C117</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอภูเวียง ขอนแก่น</v>
       </c>
     </row>
@@ -29851,7 +29969,7 @@
         <v>651</v>
       </c>
       <c r="D118" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A118 &amp; " "&amp;C118</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอมัญจาคีรี ขอนแก่น</v>
       </c>
     </row>
@@ -29866,7 +29984,7 @@
         <v>651</v>
       </c>
       <c r="D119" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A119 &amp; " "&amp;C119</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอชนบท ขอนแก่น</v>
       </c>
     </row>
@@ -29881,7 +29999,7 @@
         <v>651</v>
       </c>
       <c r="D120" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A120 &amp; " "&amp;C120</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเขาสวนกวาง ขอนแก่น</v>
       </c>
     </row>
@@ -29896,7 +30014,7 @@
         <v>651</v>
       </c>
       <c r="D121" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A121 &amp; " "&amp;C121</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอภูผาม่าน ขอนแก่น</v>
       </c>
     </row>
@@ -29911,7 +30029,7 @@
         <v>651</v>
       </c>
       <c r="D122" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A122 &amp; " "&amp;C122</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอซำสูง ขอนแก่น</v>
       </c>
     </row>
@@ -29926,7 +30044,7 @@
         <v>651</v>
       </c>
       <c r="D123" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A123 &amp; " "&amp;C123</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอโคกโพธิ์ไชย ขอนแก่น</v>
       </c>
     </row>
@@ -29941,7 +30059,7 @@
         <v>651</v>
       </c>
       <c r="D124" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A124 &amp; " "&amp;C124</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอหนองนาคำ ขอนแก่น</v>
       </c>
     </row>
@@ -29956,7 +30074,7 @@
         <v>651</v>
       </c>
       <c r="D125" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A125 &amp; " "&amp;C125</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอบ้านแฮด ขอนแก่น</v>
       </c>
     </row>
@@ -29971,7 +30089,7 @@
         <v>651</v>
       </c>
       <c r="D126" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A126 &amp; " "&amp;C126</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอโนนศิลา ขอนแก่น</v>
       </c>
     </row>
@@ -29986,7 +30104,7 @@
         <v>651</v>
       </c>
       <c r="D127" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A127 &amp; " "&amp;C127</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอเวียงเก่า ขอนแก่น</v>
       </c>
     </row>
@@ -30001,7 +30119,7 @@
         <v>274</v>
       </c>
       <c r="D128" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A128 &amp; " "&amp;C128</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอแก่งหางแมว จันทบุรี</v>
       </c>
     </row>
@@ -30016,7 +30134,7 @@
         <v>274</v>
       </c>
       <c r="D129" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A129 &amp; " "&amp;C129</f>
+        <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอนายายอาม จันทบุรี</v>
       </c>
     </row>
@@ -30031,7 +30149,7 @@
         <v>274</v>
       </c>
       <c r="D130" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A130 &amp; " "&amp;C130</f>
+        <f t="shared" ref="D130:D193" si="2">"ที่ว่าการอำเภอ"&amp;A130 &amp; " "&amp;C130</f>
         <v>ที่ว่าการอำเภอเขาคิชฌกูฏ จันทบุรี</v>
       </c>
     </row>
@@ -30046,7 +30164,7 @@
         <v>274</v>
       </c>
       <c r="D131" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A131 &amp; " "&amp;C131</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเมืองจันทบุรี จันทบุรี</v>
       </c>
     </row>
@@ -30061,7 +30179,7 @@
         <v>274</v>
       </c>
       <c r="D132" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A132 &amp; " "&amp;C132</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอขลุง จันทบุรี</v>
       </c>
     </row>
@@ -30076,7 +30194,7 @@
         <v>274</v>
       </c>
       <c r="D133" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A133 &amp; " "&amp;C133</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอท่าใหม่ จันทบุรี</v>
       </c>
     </row>
@@ -30091,7 +30209,7 @@
         <v>274</v>
       </c>
       <c r="D134" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A134 &amp; " "&amp;C134</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอโป่งน้ำร้อน จันทบุรี</v>
       </c>
     </row>
@@ -30106,7 +30224,7 @@
         <v>274</v>
       </c>
       <c r="D135" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A135 &amp; " "&amp;C135</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอมะขาม จันทบุรี</v>
       </c>
     </row>
@@ -30121,7 +30239,7 @@
         <v>274</v>
       </c>
       <c r="D136" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A136 &amp; " "&amp;C136</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอแหลมสิงห์ จันทบุรี</v>
       </c>
     </row>
@@ -30136,7 +30254,7 @@
         <v>274</v>
       </c>
       <c r="D137" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A137 &amp; " "&amp;C137</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอสอยดาว จันทบุรี</v>
       </c>
     </row>
@@ -30151,7 +30269,7 @@
         <v>286</v>
       </c>
       <c r="D138" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A138 &amp; " "&amp;C138</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเมืองฉะเชิงเทรา ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30166,7 +30284,7 @@
         <v>286</v>
       </c>
       <c r="D139" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A139 &amp; " "&amp;C139</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบางคล้า ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30181,7 +30299,7 @@
         <v>286</v>
       </c>
       <c r="D140" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A140 &amp; " "&amp;C140</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบางน้ำเปรี้ยว ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30196,7 +30314,7 @@
         <v>286</v>
       </c>
       <c r="D141" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A141 &amp; " "&amp;C141</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบางปะกง ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30211,7 +30329,7 @@
         <v>286</v>
       </c>
       <c r="D142" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A142 &amp; " "&amp;C142</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบ้านโพธิ์ ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30226,7 +30344,7 @@
         <v>286</v>
       </c>
       <c r="D143" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A143 &amp; " "&amp;C143</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอพนมสารคาม ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30241,7 +30359,7 @@
         <v>286</v>
       </c>
       <c r="D144" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A144 &amp; " "&amp;C144</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอราชสาส์น ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30256,7 +30374,7 @@
         <v>286</v>
       </c>
       <c r="D145" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A145 &amp; " "&amp;C145</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอสนามชัยเขต ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30271,7 +30389,7 @@
         <v>286</v>
       </c>
       <c r="D146" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A146 &amp; " "&amp;C146</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอแปลงยาว ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30286,7 +30404,7 @@
         <v>286</v>
       </c>
       <c r="D147" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A147 &amp; " "&amp;C147</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอท่าตะเกียบ ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30301,7 +30419,7 @@
         <v>286</v>
       </c>
       <c r="D148" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A148 &amp; " "&amp;C148</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอคลองเขื่อน ฉะเชิงเทรา</v>
       </c>
     </row>
@@ -30316,7 +30434,7 @@
         <v>266</v>
       </c>
       <c r="D149" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A149 &amp; " "&amp;C149</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเมืองชลบุรี ชลบุรี</v>
       </c>
     </row>
@@ -30331,7 +30449,7 @@
         <v>266</v>
       </c>
       <c r="D150" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A150 &amp; " "&amp;C150</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบ้านบึง ชลบุรี</v>
       </c>
     </row>
@@ -30346,7 +30464,7 @@
         <v>266</v>
       </c>
       <c r="D151" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A151 &amp; " "&amp;C151</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอหนองใหญ่ ชลบุรี</v>
       </c>
     </row>
@@ -30361,7 +30479,7 @@
         <v>266</v>
       </c>
       <c r="D152" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A152 &amp; " "&amp;C152</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบางละมุง ชลบุรี</v>
       </c>
     </row>
@@ -30376,7 +30494,7 @@
         <v>266</v>
       </c>
       <c r="D153" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A153 &amp; " "&amp;C153</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอพานทอง ชลบุรี</v>
       </c>
     </row>
@@ -30391,7 +30509,7 @@
         <v>266</v>
       </c>
       <c r="D154" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A154 &amp; " "&amp;C154</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอพนัสนิคม ชลบุรี</v>
       </c>
     </row>
@@ -30406,7 +30524,7 @@
         <v>266</v>
       </c>
       <c r="D155" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A155 &amp; " "&amp;C155</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอศรีราชา ชลบุรี</v>
       </c>
     </row>
@@ -30421,7 +30539,7 @@
         <v>266</v>
       </c>
       <c r="D156" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A156 &amp; " "&amp;C156</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเกาะสีชัง ชลบุรี</v>
       </c>
     </row>
@@ -30436,7 +30554,7 @@
         <v>266</v>
       </c>
       <c r="D157" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A157 &amp; " "&amp;C157</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอสัตหีบ ชลบุรี</v>
       </c>
     </row>
@@ -30451,7 +30569,7 @@
         <v>266</v>
       </c>
       <c r="D158" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A158 &amp; " "&amp;C158</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบ่อทอง ชลบุรี</v>
       </c>
     </row>
@@ -30466,7 +30584,7 @@
         <v>266</v>
       </c>
       <c r="D159" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A159 &amp; " "&amp;C159</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเกาะจันทร์ ชลบุรี</v>
       </c>
     </row>
@@ -30481,7 +30599,7 @@
         <v>96</v>
       </c>
       <c r="D160" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A160 &amp; " "&amp;C160</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอสรรคบุรี ชัยนาท</v>
       </c>
     </row>
@@ -30496,7 +30614,7 @@
         <v>96</v>
       </c>
       <c r="D161" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A161 &amp; " "&amp;C161</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอหันคา ชัยนาท</v>
       </c>
     </row>
@@ -30511,7 +30629,7 @@
         <v>96</v>
       </c>
       <c r="D162" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A162 &amp; " "&amp;C162</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอหนองมะโมง ชัยนาท</v>
       </c>
     </row>
@@ -30526,7 +30644,7 @@
         <v>96</v>
       </c>
       <c r="D163" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A163 &amp; " "&amp;C163</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเนินขาม ชัยนาท</v>
       </c>
     </row>
@@ -30541,7 +30659,7 @@
         <v>96</v>
       </c>
       <c r="D164" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A164 &amp; " "&amp;C164</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเมืองชัยนาท ชัยนาท</v>
       </c>
     </row>
@@ -30556,7 +30674,7 @@
         <v>96</v>
       </c>
       <c r="D165" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A165 &amp; " "&amp;C165</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอมโนรมย์ ชัยนาท</v>
       </c>
     </row>
@@ -30571,7 +30689,7 @@
         <v>96</v>
       </c>
       <c r="D166" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A166 &amp; " "&amp;C166</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอวัดสิงห์ ชัยนาท</v>
       </c>
     </row>
@@ -30586,7 +30704,7 @@
         <v>96</v>
       </c>
       <c r="D167" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A167 &amp; " "&amp;C167</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอสรรพยา ชัยนาท</v>
       </c>
     </row>
@@ -30601,7 +30719,7 @@
         <v>623</v>
       </c>
       <c r="D168" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A168 &amp; " "&amp;C168</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเมืองชัยภูมิ ชัยภูมิ</v>
       </c>
     </row>
@@ -30616,7 +30734,7 @@
         <v>623</v>
       </c>
       <c r="D169" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A169 &amp; " "&amp;C169</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบ้านเขว้า ชัยภูมิ</v>
       </c>
     </row>
@@ -30631,7 +30749,7 @@
         <v>623</v>
       </c>
       <c r="D170" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A170 &amp; " "&amp;C170</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอคอนสวรรค์ ชัยภูมิ</v>
       </c>
     </row>
@@ -30646,7 +30764,7 @@
         <v>623</v>
       </c>
       <c r="D171" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A171 &amp; " "&amp;C171</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเกษตรสมบูรณ์ ชัยภูมิ</v>
       </c>
     </row>
@@ -30661,7 +30779,7 @@
         <v>623</v>
       </c>
       <c r="D172" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A172 &amp; " "&amp;C172</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอหนองบัวแดง ชัยภูมิ</v>
       </c>
     </row>
@@ -30676,7 +30794,7 @@
         <v>623</v>
       </c>
       <c r="D173" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A173 &amp; " "&amp;C173</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอจัตุรัส ชัยภูมิ</v>
       </c>
     </row>
@@ -30691,7 +30809,7 @@
         <v>623</v>
       </c>
       <c r="D174" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A174 &amp; " "&amp;C174</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบำเหน็จณรงค์ ชัยภูมิ</v>
       </c>
     </row>
@@ -30706,7 +30824,7 @@
         <v>623</v>
       </c>
       <c r="D175" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A175 &amp; " "&amp;C175</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอหนองบัวระเหว ชัยภูมิ</v>
       </c>
     </row>
@@ -30721,7 +30839,7 @@
         <v>623</v>
       </c>
       <c r="D176" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A176 &amp; " "&amp;C176</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเทพสถิต ชัยภูมิ</v>
       </c>
     </row>
@@ -30736,7 +30854,7 @@
         <v>623</v>
       </c>
       <c r="D177" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A177 &amp; " "&amp;C177</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอภูเขียว ชัยภูมิ</v>
       </c>
     </row>
@@ -30751,7 +30869,7 @@
         <v>623</v>
       </c>
       <c r="D178" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A178 &amp; " "&amp;C178</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอบ้านแท่น ชัยภูมิ</v>
       </c>
     </row>
@@ -30766,7 +30884,7 @@
         <v>623</v>
       </c>
       <c r="D179" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A179 &amp; " "&amp;C179</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอภักดีชุมพล ชัยภูมิ</v>
       </c>
     </row>
@@ -30781,7 +30899,7 @@
         <v>623</v>
       </c>
       <c r="D180" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A180 &amp; " "&amp;C180</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอแก้งคร้อ ชัยภูมิ</v>
       </c>
     </row>
@@ -30796,7 +30914,7 @@
         <v>623</v>
       </c>
       <c r="D181" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A181 &amp; " "&amp;C181</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอคอนสาร ชัยภูมิ</v>
       </c>
     </row>
@@ -30811,7 +30929,7 @@
         <v>623</v>
       </c>
       <c r="D182" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A182 &amp; " "&amp;C182</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเนินสง่า ชัยภูมิ</v>
       </c>
     </row>
@@ -30826,7 +30944,7 @@
         <v>623</v>
       </c>
       <c r="D183" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A183 &amp; " "&amp;C183</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอซับใหญ่ ชัยภูมิ</v>
       </c>
     </row>
@@ -30841,7 +30959,7 @@
         <v>507</v>
       </c>
       <c r="D184" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A184 &amp; " "&amp;C184</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเมืองชุมพร ชุมพร</v>
       </c>
     </row>
@@ -30856,7 +30974,7 @@
         <v>507</v>
       </c>
       <c r="D185" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A185 &amp; " "&amp;C185</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอท่าแซะ ชุมพร</v>
       </c>
     </row>
@@ -30871,7 +30989,7 @@
         <v>507</v>
       </c>
       <c r="D186" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A186 &amp; " "&amp;C186</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอปะทิว ชุมพร</v>
       </c>
     </row>
@@ -30886,7 +31004,7 @@
         <v>507</v>
       </c>
       <c r="D187" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A187 &amp; " "&amp;C187</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอหลังสวน ชุมพร</v>
       </c>
     </row>
@@ -30901,7 +31019,7 @@
         <v>507</v>
       </c>
       <c r="D188" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A188 &amp; " "&amp;C188</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอละแม ชุมพร</v>
       </c>
     </row>
@@ -30916,7 +31034,7 @@
         <v>507</v>
       </c>
       <c r="D189" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A189 &amp; " "&amp;C189</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอพะโต๊ะ ชุมพร</v>
       </c>
     </row>
@@ -30931,7 +31049,7 @@
         <v>507</v>
       </c>
       <c r="D190" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A190 &amp; " "&amp;C190</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอสวี ชุมพร</v>
       </c>
     </row>
@@ -30946,7 +31064,7 @@
         <v>507</v>
       </c>
       <c r="D191" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A191 &amp; " "&amp;C191</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอทุ่งตะโก ชุมพร</v>
       </c>
     </row>
@@ -30961,7 +31079,7 @@
         <v>358</v>
       </c>
       <c r="D192" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A192 &amp; " "&amp;C192</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเมืองเชียงราย เชียงราย</v>
       </c>
     </row>
@@ -30976,7 +31094,7 @@
         <v>358</v>
       </c>
       <c r="D193" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A193 &amp; " "&amp;C193</f>
+        <f t="shared" si="2"/>
         <v>ที่ว่าการอำเภอเวียงชัย เชียงราย</v>
       </c>
     </row>
@@ -30991,7 +31109,7 @@
         <v>358</v>
       </c>
       <c r="D194" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A194 &amp; " "&amp;C194</f>
+        <f t="shared" ref="D194:D257" si="3">"ที่ว่าการอำเภอ"&amp;A194 &amp; " "&amp;C194</f>
         <v>ที่ว่าการอำเภอเชียงของ เชียงราย</v>
       </c>
     </row>
@@ -31006,7 +31124,7 @@
         <v>358</v>
       </c>
       <c r="D195" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A195 &amp; " "&amp;C195</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเทิง เชียงราย</v>
       </c>
     </row>
@@ -31021,7 +31139,7 @@
         <v>358</v>
       </c>
       <c r="D196" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A196 &amp; " "&amp;C196</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอพาน เชียงราย</v>
       </c>
     </row>
@@ -31036,7 +31154,7 @@
         <v>358</v>
       </c>
       <c r="D197" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A197 &amp; " "&amp;C197</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอป่าแดด เชียงราย</v>
       </c>
     </row>
@@ -31051,7 +31169,7 @@
         <v>358</v>
       </c>
       <c r="D198" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A198 &amp; " "&amp;C198</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่จัน เชียงราย</v>
       </c>
     </row>
@@ -31066,7 +31184,7 @@
         <v>358</v>
       </c>
       <c r="D199" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A199 &amp; " "&amp;C199</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเชียงแสน เชียงราย</v>
       </c>
     </row>
@@ -31081,7 +31199,7 @@
         <v>358</v>
       </c>
       <c r="D200" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A200 &amp; " "&amp;C200</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่สาย เชียงราย</v>
       </c>
     </row>
@@ -31096,7 +31214,7 @@
         <v>358</v>
       </c>
       <c r="D201" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A201 &amp; " "&amp;C201</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่สรวย เชียงราย</v>
       </c>
     </row>
@@ -31111,7 +31229,7 @@
         <v>358</v>
       </c>
       <c r="D202" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A202 &amp; " "&amp;C202</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเวียงป่าเป้า เชียงราย</v>
       </c>
     </row>
@@ -31126,7 +31244,7 @@
         <v>358</v>
       </c>
       <c r="D203" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A203 &amp; " "&amp;C203</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอพญาเม็งราย เชียงราย</v>
       </c>
     </row>
@@ -31141,7 +31259,7 @@
         <v>358</v>
       </c>
       <c r="D204" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A204 &amp; " "&amp;C204</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเวียงแก่น เชียงราย</v>
       </c>
     </row>
@@ -31156,7 +31274,7 @@
         <v>358</v>
       </c>
       <c r="D205" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A205 &amp; " "&amp;C205</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอขุนตาล เชียงราย</v>
       </c>
     </row>
@@ -31171,7 +31289,7 @@
         <v>358</v>
       </c>
       <c r="D206" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A206 &amp; " "&amp;C206</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่ฟ้าหลวง เชียงราย</v>
       </c>
     </row>
@@ -31186,7 +31304,7 @@
         <v>358</v>
       </c>
       <c r="D207" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A207 &amp; " "&amp;C207</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอดอยหลวง เชียงราย</v>
       </c>
     </row>
@@ -31201,7 +31319,7 @@
         <v>358</v>
       </c>
       <c r="D208" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A208 &amp; " "&amp;C208</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่ลาว เชียงราย</v>
       </c>
     </row>
@@ -31216,7 +31334,7 @@
         <v>358</v>
       </c>
       <c r="D209" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A209 &amp; " "&amp;C209</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเวียงเชียงรุ้ง เชียงราย</v>
       </c>
     </row>
@@ -31231,7 +31349,7 @@
         <v>363</v>
       </c>
       <c r="D210" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A210 &amp; " "&amp;C210</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่อาย เชียงใหม่</v>
       </c>
     </row>
@@ -31246,7 +31364,7 @@
         <v>363</v>
       </c>
       <c r="D211" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A211 &amp; " "&amp;C211</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอพร้าว เชียงใหม่</v>
       </c>
     </row>
@@ -31261,7 +31379,7 @@
         <v>363</v>
       </c>
       <c r="D212" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A212 &amp; " "&amp;C212</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอสันป่าตอง เชียงใหม่</v>
       </c>
     </row>
@@ -31276,7 +31394,7 @@
         <v>363</v>
       </c>
       <c r="D213" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A213 &amp; " "&amp;C213</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอสันกำแพง เชียงใหม่</v>
       </c>
     </row>
@@ -31291,7 +31409,7 @@
         <v>363</v>
       </c>
       <c r="D214" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A214 &amp; " "&amp;C214</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอสันทราย เชียงใหม่</v>
       </c>
     </row>
@@ -31306,7 +31424,7 @@
         <v>363</v>
       </c>
       <c r="D215" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A215 &amp; " "&amp;C215</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอหางดง เชียงใหม่</v>
       </c>
     </row>
@@ -31321,7 +31439,7 @@
         <v>363</v>
       </c>
       <c r="D216" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A216 &amp; " "&amp;C216</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอฮอด เชียงใหม่</v>
       </c>
     </row>
@@ -31336,7 +31454,7 @@
         <v>363</v>
       </c>
       <c r="D217" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A217 &amp; " "&amp;C217</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอดอยเต่า เชียงใหม่</v>
       </c>
     </row>
@@ -31351,7 +31469,7 @@
         <v>363</v>
       </c>
       <c r="D218" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A218 &amp; " "&amp;C218</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภออมก๋อย เชียงใหม่</v>
       </c>
     </row>
@@ -31366,7 +31484,7 @@
         <v>363</v>
       </c>
       <c r="D219" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A219 &amp; " "&amp;C219</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอสารภี เชียงใหม่</v>
       </c>
     </row>
@@ -31381,7 +31499,7 @@
         <v>363</v>
       </c>
       <c r="D220" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A220 &amp; " "&amp;C220</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเวียงแหง เชียงใหม่</v>
       </c>
     </row>
@@ -31396,7 +31514,7 @@
         <v>363</v>
       </c>
       <c r="D221" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A221 &amp; " "&amp;C221</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอไชยปราการ เชียงใหม่</v>
       </c>
     </row>
@@ -31411,7 +31529,7 @@
         <v>363</v>
       </c>
       <c r="D222" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A222 &amp; " "&amp;C222</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่วาง เชียงใหม่</v>
       </c>
     </row>
@@ -31426,7 +31544,7 @@
         <v>363</v>
       </c>
       <c r="D223" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A223 &amp; " "&amp;C223</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่ออน เชียงใหม่</v>
       </c>
     </row>
@@ -31441,7 +31559,7 @@
         <v>363</v>
       </c>
       <c r="D224" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A224 &amp; " "&amp;C224</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอดอยหล่อ เชียงใหม่</v>
       </c>
     </row>
@@ -31456,7 +31574,7 @@
         <v>363</v>
       </c>
       <c r="D225" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A225 &amp; " "&amp;C225</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอกัลยาณิวัฒนา เชียงใหม่</v>
       </c>
     </row>
@@ -31471,7 +31589,7 @@
         <v>363</v>
       </c>
       <c r="D226" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A226 &amp; " "&amp;C226</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเมืองเชียงใหม่ เชียงใหม่</v>
       </c>
     </row>
@@ -31486,7 +31604,7 @@
         <v>363</v>
       </c>
       <c r="D227" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A227 &amp; " "&amp;C227</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอจอมทอง เชียงใหม่</v>
       </c>
     </row>
@@ -31501,7 +31619,7 @@
         <v>363</v>
       </c>
       <c r="D228" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A228 &amp; " "&amp;C228</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่แจ่ม เชียงใหม่</v>
       </c>
     </row>
@@ -31516,7 +31634,7 @@
         <v>363</v>
       </c>
       <c r="D229" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A229 &amp; " "&amp;C229</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเชียงดาว เชียงใหม่</v>
       </c>
     </row>
@@ -31531,7 +31649,7 @@
         <v>363</v>
       </c>
       <c r="D230" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A230 &amp; " "&amp;C230</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอดอยสะเก็ด เชียงใหม่</v>
       </c>
     </row>
@@ -31546,7 +31664,7 @@
         <v>363</v>
       </c>
       <c r="D231" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A231 &amp; " "&amp;C231</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่แตง เชียงใหม่</v>
       </c>
     </row>
@@ -31561,7 +31679,7 @@
         <v>363</v>
       </c>
       <c r="D232" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A232 &amp; " "&amp;C232</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่ริม เชียงใหม่</v>
       </c>
     </row>
@@ -31576,7 +31694,7 @@
         <v>363</v>
       </c>
       <c r="D233" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A233 &amp; " "&amp;C233</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอสะเมิง เชียงใหม่</v>
       </c>
     </row>
@@ -31591,7 +31709,7 @@
         <v>363</v>
       </c>
       <c r="D234" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A234 &amp; " "&amp;C234</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอฝาง เชียงใหม่</v>
       </c>
     </row>
@@ -31606,7 +31724,7 @@
         <v>518</v>
       </c>
       <c r="D235" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A235 &amp; " "&amp;C235</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเมืองตรัง ตรัง</v>
       </c>
     </row>
@@ -31621,7 +31739,7 @@
         <v>518</v>
       </c>
       <c r="D236" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A236 &amp; " "&amp;C236</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอกันตัง ตรัง</v>
       </c>
     </row>
@@ -31636,7 +31754,7 @@
         <v>518</v>
       </c>
       <c r="D237" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A237 &amp; " "&amp;C237</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอย่านตาขาว ตรัง</v>
       </c>
     </row>
@@ -31651,7 +31769,7 @@
         <v>518</v>
       </c>
       <c r="D238" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A238 &amp; " "&amp;C238</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอปะเหลียน ตรัง</v>
       </c>
     </row>
@@ -31666,7 +31784,7 @@
         <v>518</v>
       </c>
       <c r="D239" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A239 &amp; " "&amp;C239</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอสิเกา ตรัง</v>
       </c>
     </row>
@@ -31681,7 +31799,7 @@
         <v>518</v>
       </c>
       <c r="D240" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A240 &amp; " "&amp;C240</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอห้วยยอด ตรัง</v>
       </c>
     </row>
@@ -31696,7 +31814,7 @@
         <v>518</v>
       </c>
       <c r="D241" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A241 &amp; " "&amp;C241</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอวังวิเศษ ตรัง</v>
       </c>
     </row>
@@ -31711,7 +31829,7 @@
         <v>518</v>
       </c>
       <c r="D242" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A242 &amp; " "&amp;C242</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอนาโยง ตรัง</v>
       </c>
     </row>
@@ -31726,7 +31844,7 @@
         <v>518</v>
       </c>
       <c r="D243" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A243 &amp; " "&amp;C243</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอรัษฎา ตรัง</v>
       </c>
     </row>
@@ -31741,7 +31859,7 @@
         <v>518</v>
       </c>
       <c r="D244" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A244 &amp; " "&amp;C244</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอหาดสำราญ ตรัง</v>
       </c>
     </row>
@@ -31756,7 +31874,7 @@
         <v>278</v>
       </c>
       <c r="D245" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A245 &amp; " "&amp;C245</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเมืองตราด ตราด</v>
       </c>
     </row>
@@ -31771,7 +31889,7 @@
         <v>278</v>
       </c>
       <c r="D246" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A246 &amp; " "&amp;C246</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอคลองใหญ่ ตราด</v>
       </c>
     </row>
@@ -31786,7 +31904,7 @@
         <v>278</v>
       </c>
       <c r="D247" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A247 &amp; " "&amp;C247</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเขาสมิง ตราด</v>
       </c>
     </row>
@@ -31801,7 +31919,7 @@
         <v>278</v>
       </c>
       <c r="D248" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A248 &amp; " "&amp;C248</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอบ่อไร่ ตราด</v>
       </c>
     </row>
@@ -31816,7 +31934,7 @@
         <v>278</v>
       </c>
       <c r="D249" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A249 &amp; " "&amp;C249</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแหลมงอบ ตราด</v>
       </c>
     </row>
@@ -31831,7 +31949,7 @@
         <v>278</v>
       </c>
       <c r="D250" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A250 &amp; " "&amp;C250</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเกาะกูด ตราด</v>
       </c>
     </row>
@@ -31846,7 +31964,7 @@
         <v>278</v>
       </c>
       <c r="D251" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A251 &amp; " "&amp;C251</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเกาะช้าง ตราด</v>
       </c>
     </row>
@@ -31861,7 +31979,7 @@
         <v>948</v>
       </c>
       <c r="D252" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A252 &amp; " "&amp;C252</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอเมืองตาก ตาก</v>
       </c>
     </row>
@@ -31876,7 +31994,7 @@
         <v>948</v>
       </c>
       <c r="D253" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A253 &amp; " "&amp;C253</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอบ้านตาก ตาก</v>
       </c>
     </row>
@@ -31891,7 +32009,7 @@
         <v>948</v>
       </c>
       <c r="D254" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A254 &amp; " "&amp;C254</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอสามเงา ตาก</v>
       </c>
     </row>
@@ -31906,7 +32024,7 @@
         <v>948</v>
       </c>
       <c r="D255" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A255 &amp; " "&amp;C255</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่ระมาด ตาก</v>
       </c>
     </row>
@@ -31921,7 +32039,7 @@
         <v>948</v>
       </c>
       <c r="D256" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A256 &amp; " "&amp;C256</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอท่าสองยาง ตาก</v>
       </c>
     </row>
@@ -31936,7 +32054,7 @@
         <v>948</v>
       </c>
       <c r="D257" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A257 &amp; " "&amp;C257</f>
+        <f t="shared" si="3"/>
         <v>ที่ว่าการอำเภอแม่สอด ตาก</v>
       </c>
     </row>
@@ -31951,7 +32069,7 @@
         <v>948</v>
       </c>
       <c r="D258" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A258 &amp; " "&amp;C258</f>
+        <f t="shared" ref="D258:D321" si="4">"ที่ว่าการอำเภอ"&amp;A258 &amp; " "&amp;C258</f>
         <v>ที่ว่าการอำเภอพบพระ ตาก</v>
       </c>
     </row>
@@ -31966,7 +32084,7 @@
         <v>948</v>
       </c>
       <c r="D259" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A259 &amp; " "&amp;C259</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภออุ้มผาง ตาก</v>
       </c>
     </row>
@@ -31981,7 +32099,7 @@
         <v>948</v>
       </c>
       <c r="D260" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A260 &amp; " "&amp;C260</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอวังเจ้า ตาก</v>
       </c>
     </row>
@@ -31996,7 +32114,7 @@
         <v>8</v>
       </c>
       <c r="D261" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A261 &amp; " "&amp;C261</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอบ้านนา นครนายก</v>
       </c>
     </row>
@@ -32011,7 +32129,7 @@
         <v>8</v>
       </c>
       <c r="D262" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A262 &amp; " "&amp;C262</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอองครักษ์ นครนายก</v>
       </c>
     </row>
@@ -32026,7 +32144,7 @@
         <v>8</v>
       </c>
       <c r="D263" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A263 &amp; " "&amp;C263</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเมืองนครนายก นครนายก</v>
       </c>
     </row>
@@ -32041,7 +32159,7 @@
         <v>8</v>
       </c>
       <c r="D264" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A264 &amp; " "&amp;C264</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอปากพลี นครนายก</v>
       </c>
     </row>
@@ -32056,7 +32174,7 @@
         <v>240</v>
       </c>
       <c r="D265" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A265 &amp; " "&amp;C265</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเมืองนครปฐม นครปฐม</v>
       </c>
     </row>
@@ -32071,7 +32189,7 @@
         <v>240</v>
       </c>
       <c r="D266" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A266 &amp; " "&amp;C266</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอกำแพงแสน นครปฐม</v>
       </c>
     </row>
@@ -32086,7 +32204,7 @@
         <v>240</v>
       </c>
       <c r="D267" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A267 &amp; " "&amp;C267</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอนครชัยศรี นครปฐม</v>
       </c>
     </row>
@@ -32101,7 +32219,7 @@
         <v>240</v>
       </c>
       <c r="D268" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A268 &amp; " "&amp;C268</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอดอนตูม นครปฐม</v>
       </c>
     </row>
@@ -32116,7 +32234,7 @@
         <v>240</v>
       </c>
       <c r="D269" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A269 &amp; " "&amp;C269</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอบางเลน นครปฐม</v>
       </c>
     </row>
@@ -32131,7 +32249,7 @@
         <v>240</v>
       </c>
       <c r="D270" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A270 &amp; " "&amp;C270</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอสามพราน นครปฐม</v>
       </c>
     </row>
@@ -32146,7 +32264,7 @@
         <v>240</v>
       </c>
       <c r="D271" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A271 &amp; " "&amp;C271</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอพุทธมณฑล นครปฐม</v>
       </c>
     </row>
@@ -32161,7 +32279,7 @@
         <v>834</v>
       </c>
       <c r="D272" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A272 &amp; " "&amp;C272</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเมืองนครพนม นครพนม</v>
       </c>
     </row>
@@ -32176,7 +32294,7 @@
         <v>834</v>
       </c>
       <c r="D273" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A273 &amp; " "&amp;C273</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอปลาปาก นครพนม</v>
       </c>
     </row>
@@ -32191,7 +32309,7 @@
         <v>834</v>
       </c>
       <c r="D274" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A274 &amp; " "&amp;C274</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอท่าอุเทน นครพนม</v>
       </c>
     </row>
@@ -32206,7 +32324,7 @@
         <v>834</v>
       </c>
       <c r="D275" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A275 &amp; " "&amp;C275</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอบ้านแพง นครพนม</v>
       </c>
     </row>
@@ -32221,7 +32339,7 @@
         <v>834</v>
       </c>
       <c r="D276" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A276 &amp; " "&amp;C276</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอธาตุพนม นครพนม</v>
       </c>
     </row>
@@ -32236,7 +32354,7 @@
         <v>834</v>
       </c>
       <c r="D277" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A277 &amp; " "&amp;C277</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเรณูนคร นครพนม</v>
       </c>
     </row>
@@ -32251,7 +32369,7 @@
         <v>834</v>
       </c>
       <c r="D278" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A278 &amp; " "&amp;C278</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอนาแก นครพนม</v>
       </c>
     </row>
@@ -32266,7 +32384,7 @@
         <v>834</v>
       </c>
       <c r="D279" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A279 &amp; " "&amp;C279</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอศรีสงคราม นครพนม</v>
       </c>
     </row>
@@ -32281,7 +32399,7 @@
         <v>834</v>
       </c>
       <c r="D280" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A280 &amp; " "&amp;C280</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอนาหว้า นครพนม</v>
       </c>
     </row>
@@ -32296,7 +32414,7 @@
         <v>834</v>
       </c>
       <c r="D281" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A281 &amp; " "&amp;C281</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอโพนสวรรค์ นครพนม</v>
       </c>
     </row>
@@ -32311,7 +32429,7 @@
         <v>834</v>
       </c>
       <c r="D282" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A282 &amp; " "&amp;C282</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอนาทม นครพนม</v>
       </c>
     </row>
@@ -32326,7 +32444,7 @@
         <v>834</v>
       </c>
       <c r="D283" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A283 &amp; " "&amp;C283</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอวังยาง นครพนม</v>
       </c>
     </row>
@@ -32341,7 +32459,7 @@
         <v>609</v>
       </c>
       <c r="D284" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A284 &amp; " "&amp;C284</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเมืองนครราชสีมา นครราชสีมา</v>
       </c>
     </row>
@@ -32356,7 +32474,7 @@
         <v>609</v>
       </c>
       <c r="D285" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A285 &amp; " "&amp;C285</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอครบุรี นครราชสีมา</v>
       </c>
     </row>
@@ -32371,7 +32489,7 @@
         <v>609</v>
       </c>
       <c r="D286" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A286 &amp; " "&amp;C286</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอปักธงชัย นครราชสีมา</v>
       </c>
     </row>
@@ -32386,7 +32504,7 @@
         <v>609</v>
       </c>
       <c r="D287" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A287 &amp; " "&amp;C287</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอพิมาย นครราชสีมา</v>
       </c>
     </row>
@@ -32401,7 +32519,7 @@
         <v>609</v>
       </c>
       <c r="D288" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A288 &amp; " "&amp;C288</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอห้วยแถลง นครราชสีมา</v>
       </c>
     </row>
@@ -32416,7 +32534,7 @@
         <v>609</v>
       </c>
       <c r="D289" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A289 &amp; " "&amp;C289</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอชุมพวง นครราชสีมา</v>
       </c>
     </row>
@@ -32431,7 +32549,7 @@
         <v>609</v>
       </c>
       <c r="D290" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A290 &amp; " "&amp;C290</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอสูงเนิน นครราชสีมา</v>
       </c>
     </row>
@@ -32446,7 +32564,7 @@
         <v>609</v>
       </c>
       <c r="D291" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A291 &amp; " "&amp;C291</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเสิงสาง นครราชสีมา</v>
       </c>
     </row>
@@ -32461,7 +32579,7 @@
         <v>609</v>
       </c>
       <c r="D292" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A292 &amp; " "&amp;C292</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอคง นครราชสีมา</v>
       </c>
     </row>
@@ -32476,7 +32594,7 @@
         <v>609</v>
       </c>
       <c r="D293" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A293 &amp; " "&amp;C293</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอบ้านเหลื่อม นครราชสีมา</v>
       </c>
     </row>
@@ -32491,7 +32609,7 @@
         <v>609</v>
       </c>
       <c r="D294" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A294 &amp; " "&amp;C294</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอจักราช นครราชสีมา</v>
       </c>
     </row>
@@ -32506,7 +32624,7 @@
         <v>609</v>
       </c>
       <c r="D295" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A295 &amp; " "&amp;C295</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอโชคชัย นครราชสีมา</v>
       </c>
     </row>
@@ -32521,7 +32639,7 @@
         <v>609</v>
       </c>
       <c r="D296" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A296 &amp; " "&amp;C296</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอด่านขุนทด นครราชสีมา</v>
       </c>
     </row>
@@ -32536,7 +32654,7 @@
         <v>609</v>
       </c>
       <c r="D297" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A297 &amp; " "&amp;C297</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอโนนไทย นครราชสีมา</v>
       </c>
     </row>
@@ -32551,7 +32669,7 @@
         <v>609</v>
       </c>
       <c r="D298" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A298 &amp; " "&amp;C298</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอโนนสูง นครราชสีมา</v>
       </c>
     </row>
@@ -32566,7 +32684,7 @@
         <v>609</v>
       </c>
       <c r="D299" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A299 &amp; " "&amp;C299</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอขามสะแกแสง นครราชสีมา</v>
       </c>
     </row>
@@ -32581,7 +32699,7 @@
         <v>609</v>
       </c>
       <c r="D300" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A300 &amp; " "&amp;C300</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอบัวใหญ่ นครราชสีมา</v>
       </c>
     </row>
@@ -32596,7 +32714,7 @@
         <v>609</v>
       </c>
       <c r="D301" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A301 &amp; " "&amp;C301</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอประทาย นครราชสีมา</v>
       </c>
     </row>
@@ -32611,7 +32729,7 @@
         <v>609</v>
       </c>
       <c r="D302" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A302 &amp; " "&amp;C302</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอขามทะเลสอ นครราชสีมา</v>
       </c>
     </row>
@@ -32626,7 +32744,7 @@
         <v>609</v>
       </c>
       <c r="D303" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A303 &amp; " "&amp;C303</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอสีคิ้ว นครราชสีมา</v>
       </c>
     </row>
@@ -32641,7 +32759,7 @@
         <v>609</v>
       </c>
       <c r="D304" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A304 &amp; " "&amp;C304</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอปากช่อง นครราชสีมา</v>
       </c>
     </row>
@@ -32656,7 +32774,7 @@
         <v>609</v>
       </c>
       <c r="D305" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A305 &amp; " "&amp;C305</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอหนองบุญมาก นครราชสีมา</v>
       </c>
     </row>
@@ -32671,7 +32789,7 @@
         <v>609</v>
       </c>
       <c r="D306" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A306 &amp; " "&amp;C306</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอแก้งสนามนาง นครราชสีมา</v>
       </c>
     </row>
@@ -32686,7 +32804,7 @@
         <v>609</v>
       </c>
       <c r="D307" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A307 &amp; " "&amp;C307</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอโนนแดง นครราชสีมา</v>
       </c>
     </row>
@@ -32701,7 +32819,7 @@
         <v>609</v>
       </c>
       <c r="D308" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A308 &amp; " "&amp;C308</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอวังน้ำเขียว นครราชสีมา</v>
       </c>
     </row>
@@ -32716,7 +32834,7 @@
         <v>609</v>
       </c>
       <c r="D309" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A309 &amp; " "&amp;C309</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเทพารักษ์ นครราชสีมา</v>
       </c>
     </row>
@@ -32731,7 +32849,7 @@
         <v>609</v>
       </c>
       <c r="D310" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A310 &amp; " "&amp;C310</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเมืองยาง นครราชสีมา</v>
       </c>
     </row>
@@ -32746,7 +32864,7 @@
         <v>609</v>
       </c>
       <c r="D311" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A311 &amp; " "&amp;C311</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอพระทองคำ นครราชสีมา</v>
       </c>
     </row>
@@ -32761,7 +32879,7 @@
         <v>609</v>
       </c>
       <c r="D312" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A312 &amp; " "&amp;C312</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอลำทะเมนชัย นครราชสีมา</v>
       </c>
     </row>
@@ -32776,7 +32894,7 @@
         <v>609</v>
       </c>
       <c r="D313" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A313 &amp; " "&amp;C313</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอบัวลาย นครราชสีมา</v>
       </c>
     </row>
@@ -32791,7 +32909,7 @@
         <v>609</v>
       </c>
       <c r="D314" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A314 &amp; " "&amp;C314</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอสีดา นครราชสีมา</v>
       </c>
     </row>
@@ -32806,7 +32924,7 @@
         <v>609</v>
       </c>
       <c r="D315" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A315 &amp; " "&amp;C315</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเฉลิมพระเกียรติ นครราชสีมา</v>
       </c>
     </row>
@@ -32821,7 +32939,7 @@
         <v>449</v>
       </c>
       <c r="D316" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A316 &amp; " "&amp;C316</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเมืองนครศรีธรรมราช นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32836,7 +32954,7 @@
         <v>449</v>
       </c>
       <c r="D317" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A317 &amp; " "&amp;C317</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอพรหมคีรี นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32851,7 +32969,7 @@
         <v>449</v>
       </c>
       <c r="D318" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A318 &amp; " "&amp;C318</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอลานสกา นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32866,7 +32984,7 @@
         <v>449</v>
       </c>
       <c r="D319" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A319 &amp; " "&amp;C319</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอฉวาง นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32881,7 +32999,7 @@
         <v>449</v>
       </c>
       <c r="D320" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A320 &amp; " "&amp;C320</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอพิปูน นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32896,7 +33014,7 @@
         <v>449</v>
       </c>
       <c r="D321" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A321 &amp; " "&amp;C321</f>
+        <f t="shared" si="4"/>
         <v>ที่ว่าการอำเภอเชียรใหญ่ นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32911,7 +33029,7 @@
         <v>449</v>
       </c>
       <c r="D322" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A322 &amp; " "&amp;C322</f>
+        <f t="shared" ref="D322:D385" si="5">"ที่ว่าการอำเภอ"&amp;A322 &amp; " "&amp;C322</f>
         <v>ที่ว่าการอำเภอชะอวด นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32926,7 +33044,7 @@
         <v>449</v>
       </c>
       <c r="D323" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A323 &amp; " "&amp;C323</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอท่าศาลา นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32941,7 +33059,7 @@
         <v>449</v>
       </c>
       <c r="D324" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A324 &amp; " "&amp;C324</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอทุ่งสง นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32956,7 +33074,7 @@
         <v>449</v>
       </c>
       <c r="D325" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A325 &amp; " "&amp;C325</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอนาบอน นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32971,7 +33089,7 @@
         <v>449</v>
       </c>
       <c r="D326" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A326 &amp; " "&amp;C326</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอทุ่งใหญ่ นครศรีธรรมราช</v>
       </c>
     </row>
@@ -32986,7 +33104,7 @@
         <v>449</v>
       </c>
       <c r="D327" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A327 &amp; " "&amp;C327</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอปากพนัง นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33001,7 +33119,7 @@
         <v>449</v>
       </c>
       <c r="D328" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A328 &amp; " "&amp;C328</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอร่อนพิบูลย์ นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33016,7 +33134,7 @@
         <v>449</v>
       </c>
       <c r="D329" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A329 &amp; " "&amp;C329</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอสิชล นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33031,7 +33149,7 @@
         <v>449</v>
       </c>
       <c r="D330" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A330 &amp; " "&amp;C330</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอขนอม นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33046,7 +33164,7 @@
         <v>449</v>
       </c>
       <c r="D331" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A331 &amp; " "&amp;C331</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอหัวไทร นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33061,7 +33179,7 @@
         <v>449</v>
       </c>
       <c r="D332" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A332 &amp; " "&amp;C332</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบางขัน นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33076,7 +33194,7 @@
         <v>449</v>
       </c>
       <c r="D333" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A333 &amp; " "&amp;C333</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอถ้ำพรรณรา นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33091,7 +33209,7 @@
         <v>449</v>
       </c>
       <c r="D334" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A334 &amp; " "&amp;C334</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอจุฬาภรณ์ นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33106,7 +33224,7 @@
         <v>449</v>
       </c>
       <c r="D335" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A335 &amp; " "&amp;C335</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอพระพรหม นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33121,7 +33239,7 @@
         <v>449</v>
       </c>
       <c r="D336" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A336 &amp; " "&amp;C336</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอนบพิตำ นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33136,7 +33254,7 @@
         <v>449</v>
       </c>
       <c r="D337" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A337 &amp; " "&amp;C337</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอช้างกลาง นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33151,7 +33269,7 @@
         <v>449</v>
       </c>
       <c r="D338" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A338 &amp; " "&amp;C338</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเฉลิมพระเกียรติ นครศรีธรรมราช</v>
       </c>
     </row>
@@ -33166,7 +33284,7 @@
         <v>147</v>
       </c>
       <c r="D339" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A339 &amp; " "&amp;C339</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเมืองนครสวรรค์ นครสวรรค์</v>
       </c>
     </row>
@@ -33181,7 +33299,7 @@
         <v>147</v>
       </c>
       <c r="D340" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A340 &amp; " "&amp;C340</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอโกรกพระ นครสวรรค์</v>
       </c>
     </row>
@@ -33196,7 +33314,7 @@
         <v>147</v>
       </c>
       <c r="D341" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A341 &amp; " "&amp;C341</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอชุมแสง นครสวรรค์</v>
       </c>
     </row>
@@ -33211,7 +33329,7 @@
         <v>147</v>
       </c>
       <c r="D342" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A342 &amp; " "&amp;C342</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอหนองบัว นครสวรรค์</v>
       </c>
     </row>
@@ -33226,7 +33344,7 @@
         <v>147</v>
       </c>
       <c r="D343" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A343 &amp; " "&amp;C343</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบรรพตพิสัย นครสวรรค์</v>
       </c>
     </row>
@@ -33241,7 +33359,7 @@
         <v>147</v>
       </c>
       <c r="D344" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A344 &amp; " "&amp;C344</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเก้าเลี้ยว นครสวรรค์</v>
       </c>
     </row>
@@ -33256,7 +33374,7 @@
         <v>147</v>
       </c>
       <c r="D345" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A345 &amp; " "&amp;C345</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอตาคลี นครสวรรค์</v>
       </c>
     </row>
@@ -33271,7 +33389,7 @@
         <v>147</v>
       </c>
       <c r="D346" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A346 &amp; " "&amp;C346</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอท่าตะโก นครสวรรค์</v>
       </c>
     </row>
@@ -33286,7 +33404,7 @@
         <v>147</v>
       </c>
       <c r="D347" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A347 &amp; " "&amp;C347</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอไพศาลี นครสวรรค์</v>
       </c>
     </row>
@@ -33301,7 +33419,7 @@
         <v>147</v>
       </c>
       <c r="D348" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A348 &amp; " "&amp;C348</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอพยุหะคีรี นครสวรรค์</v>
       </c>
     </row>
@@ -33316,7 +33434,7 @@
         <v>147</v>
       </c>
       <c r="D349" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A349 &amp; " "&amp;C349</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอลาดยาว นครสวรรค์</v>
       </c>
     </row>
@@ -33331,7 +33449,7 @@
         <v>147</v>
       </c>
       <c r="D350" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A350 &amp; " "&amp;C350</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอตากฟ้า นครสวรรค์</v>
       </c>
     </row>
@@ -33346,7 +33464,7 @@
         <v>147</v>
       </c>
       <c r="D351" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A351 &amp; " "&amp;C351</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอแม่วงก์ นครสวรรค์</v>
       </c>
     </row>
@@ -33361,7 +33479,7 @@
         <v>147</v>
       </c>
       <c r="D352" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A352 &amp; " "&amp;C352</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอแม่เปิน นครสวรรค์</v>
       </c>
     </row>
@@ -33376,7 +33494,7 @@
         <v>147</v>
       </c>
       <c r="D353" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A353 &amp; " "&amp;C353</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอชุมตาบง นครสวรรค์</v>
       </c>
     </row>
@@ -33391,7 +33509,7 @@
         <v>74</v>
       </c>
       <c r="D354" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A354 &amp; " "&amp;C354</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเมืองนนทบุรี นนทบุรี</v>
       </c>
     </row>
@@ -33406,7 +33524,7 @@
         <v>74</v>
       </c>
       <c r="D355" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A355 &amp; " "&amp;C355</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบางกรวย นนทบุรี</v>
       </c>
     </row>
@@ -33421,7 +33539,7 @@
         <v>74</v>
       </c>
       <c r="D356" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A356 &amp; " "&amp;C356</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบางใหญ่ นนทบุรี</v>
       </c>
     </row>
@@ -33436,7 +33554,7 @@
         <v>74</v>
       </c>
       <c r="D357" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A357 &amp; " "&amp;C357</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบางบัวทอง นนทบุรี</v>
       </c>
     </row>
@@ -33451,7 +33569,7 @@
         <v>74</v>
       </c>
       <c r="D358" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A358 &amp; " "&amp;C358</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอไทรน้อย นนทบุรี</v>
       </c>
     </row>
@@ -33466,7 +33584,7 @@
         <v>74</v>
       </c>
       <c r="D359" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A359 &amp; " "&amp;C359</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอปากเกร็ด นนทบุรี</v>
       </c>
     </row>
@@ -33481,7 +33599,7 @@
         <v>551</v>
       </c>
       <c r="D360" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A360 &amp; " "&amp;C360</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอยี่งอ นราธิวาส</v>
       </c>
     </row>
@@ -33496,7 +33614,7 @@
         <v>551</v>
       </c>
       <c r="D361" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A361 &amp; " "&amp;C361</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอระแงะ นราธิวาส</v>
       </c>
     </row>
@@ -33511,7 +33629,7 @@
         <v>551</v>
       </c>
       <c r="D362" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A362 &amp; " "&amp;C362</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอรือเสาะ นราธิวาส</v>
       </c>
     </row>
@@ -33526,7 +33644,7 @@
         <v>551</v>
       </c>
       <c r="D363" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A363 &amp; " "&amp;C363</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอศรีสาคร นราธิวาส</v>
       </c>
     </row>
@@ -33541,7 +33659,7 @@
         <v>551</v>
       </c>
       <c r="D364" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A364 &amp; " "&amp;C364</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอแว้ง นราธิวาส</v>
       </c>
     </row>
@@ -33556,7 +33674,7 @@
         <v>551</v>
       </c>
       <c r="D365" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A365 &amp; " "&amp;C365</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอสุคิริน นราธิวาส</v>
       </c>
     </row>
@@ -33571,7 +33689,7 @@
         <v>551</v>
       </c>
       <c r="D366" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A366 &amp; " "&amp;C366</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอสุไหงโก-ลก นราธิวาส</v>
       </c>
     </row>
@@ -33586,7 +33704,7 @@
         <v>551</v>
       </c>
       <c r="D367" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A367 &amp; " "&amp;C367</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอสุไหงปาดี นราธิวาส</v>
       </c>
     </row>
@@ -33601,7 +33719,7 @@
         <v>551</v>
       </c>
       <c r="D368" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A368 &amp; " "&amp;C368</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอจะแนะ นราธิวาส</v>
       </c>
     </row>
@@ -33616,7 +33734,7 @@
         <v>551</v>
       </c>
       <c r="D369" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A369 &amp; " "&amp;C369</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเมืองนราธิวาส นราธิวาส</v>
       </c>
     </row>
@@ -33631,7 +33749,7 @@
         <v>551</v>
       </c>
       <c r="D370" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A370 &amp; " "&amp;C370</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอตากใบ นราธิวาส</v>
       </c>
     </row>
@@ -33646,7 +33764,7 @@
         <v>551</v>
       </c>
       <c r="D371" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A371 &amp; " "&amp;C371</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบาเจาะ นราธิวาส</v>
       </c>
     </row>
@@ -33661,7 +33779,7 @@
         <v>551</v>
       </c>
       <c r="D372" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A372 &amp; " "&amp;C372</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเจาะไอร้อง นราธิวาส</v>
       </c>
     </row>
@@ -33676,7 +33794,7 @@
         <v>333</v>
       </c>
       <c r="D373" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A373 &amp; " "&amp;C373</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเมืองน่าน น่าน</v>
       </c>
     </row>
@@ -33691,7 +33809,7 @@
         <v>333</v>
       </c>
       <c r="D374" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A374 &amp; " "&amp;C374</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอแม่จริม น่าน</v>
       </c>
     </row>
@@ -33706,7 +33824,7 @@
         <v>333</v>
       </c>
       <c r="D375" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A375 &amp; " "&amp;C375</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบ้านหลวง น่าน</v>
       </c>
     </row>
@@ -33721,7 +33839,7 @@
         <v>333</v>
       </c>
       <c r="D376" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A376 &amp; " "&amp;C376</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอนาน้อย น่าน</v>
       </c>
     </row>
@@ -33736,7 +33854,7 @@
         <v>333</v>
       </c>
       <c r="D377" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A377 &amp; " "&amp;C377</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอปัว น่าน</v>
       </c>
     </row>
@@ -33751,7 +33869,7 @@
         <v>333</v>
       </c>
       <c r="D378" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A378 &amp; " "&amp;C378</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอท่าวังผา น่าน</v>
       </c>
     </row>
@@ -33766,7 +33884,7 @@
         <v>333</v>
       </c>
       <c r="D379" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A379 &amp; " "&amp;C379</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเวียงสา น่าน</v>
       </c>
     </row>
@@ -33781,7 +33899,7 @@
         <v>333</v>
       </c>
       <c r="D380" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A380 &amp; " "&amp;C380</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอทุ่งช้าง น่าน</v>
       </c>
     </row>
@@ -33796,7 +33914,7 @@
         <v>333</v>
       </c>
       <c r="D381" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A381 &amp; " "&amp;C381</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอเชียงกลาง น่าน</v>
       </c>
     </row>
@@ -33811,7 +33929,7 @@
         <v>333</v>
       </c>
       <c r="D382" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A382 &amp; " "&amp;C382</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอนาหมื่น น่าน</v>
       </c>
     </row>
@@ -33826,7 +33944,7 @@
         <v>333</v>
       </c>
       <c r="D383" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A383 &amp; " "&amp;C383</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอสันติสุข น่าน</v>
       </c>
     </row>
@@ -33841,7 +33959,7 @@
         <v>333</v>
       </c>
       <c r="D384" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A384 &amp; " "&amp;C384</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอบ่อเกลือ น่าน</v>
       </c>
     </row>
@@ -33856,7 +33974,7 @@
         <v>333</v>
       </c>
       <c r="D385" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A385 &amp; " "&amp;C385</f>
+        <f t="shared" si="5"/>
         <v>ที่ว่าการอำเภอสองแคว น่าน</v>
       </c>
     </row>
@@ -33871,7 +33989,7 @@
         <v>333</v>
       </c>
       <c r="D386" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A386 &amp; " "&amp;C386</f>
+        <f t="shared" ref="D386:D449" si="6">"ที่ว่าการอำเภอ"&amp;A386 &amp; " "&amp;C386</f>
         <v>ที่ว่าการอำเภอภูเพียง น่าน</v>
       </c>
     </row>
@@ -33886,7 +34004,7 @@
         <v>333</v>
       </c>
       <c r="D387" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A387 &amp; " "&amp;C387</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเฉลิมพระเกียรติ น่าน</v>
       </c>
     </row>
@@ -33901,7 +34019,7 @@
         <v>636</v>
       </c>
       <c r="D388" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A388 &amp; " "&amp;C388</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอพรเจริญ บึงกาฬ</v>
       </c>
     </row>
@@ -33916,7 +34034,7 @@
         <v>636</v>
       </c>
       <c r="D389" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A389 &amp; " "&amp;C389</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอโซ่พิสัย บึงกาฬ</v>
       </c>
     </row>
@@ -33931,7 +34049,7 @@
         <v>636</v>
       </c>
       <c r="D390" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A390 &amp; " "&amp;C390</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเซกา บึงกาฬ</v>
       </c>
     </row>
@@ -33946,7 +34064,7 @@
         <v>636</v>
       </c>
       <c r="D391" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A391 &amp; " "&amp;C391</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอปากคาด บึงกาฬ</v>
       </c>
     </row>
@@ -33961,7 +34079,7 @@
         <v>636</v>
       </c>
       <c r="D392" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A392 &amp; " "&amp;C392</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบึงโขงหลง บึงกาฬ</v>
       </c>
     </row>
@@ -33976,7 +34094,7 @@
         <v>636</v>
       </c>
       <c r="D393" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A393 &amp; " "&amp;C393</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอศรีวิไล บึงกาฬ</v>
       </c>
     </row>
@@ -33991,7 +34109,7 @@
         <v>636</v>
       </c>
       <c r="D394" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A394 &amp; " "&amp;C394</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบุ่งคล้า บึงกาฬ</v>
       </c>
     </row>
@@ -34006,7 +34124,7 @@
         <v>636</v>
       </c>
       <c r="D395" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A395 &amp; " "&amp;C395</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบึงกาฬ บึงกาฬ</v>
       </c>
     </row>
@@ -34021,7 +34139,7 @@
         <v>617</v>
       </c>
       <c r="D396" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A396 &amp; " "&amp;C396</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอนางรอง บุรีรัมย์</v>
       </c>
     </row>
@@ -34036,7 +34154,7 @@
         <v>617</v>
       </c>
       <c r="D397" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A397 &amp; " "&amp;C397</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบ้านกรวด บุรีรัมย์</v>
       </c>
     </row>
@@ -34051,7 +34169,7 @@
         <v>617</v>
       </c>
       <c r="D398" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A398 &amp; " "&amp;C398</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอพุทไธสง บุรีรัมย์</v>
       </c>
     </row>
@@ -34066,7 +34184,7 @@
         <v>617</v>
       </c>
       <c r="D399" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A399 &amp; " "&amp;C399</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอลำปลายมาศ บุรีรัมย์</v>
       </c>
     </row>
@@ -34081,7 +34199,7 @@
         <v>617</v>
       </c>
       <c r="D400" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A400 &amp; " "&amp;C400</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอสตึก บุรีรัมย์</v>
       </c>
     </row>
@@ -34096,7 +34214,7 @@
         <v>617</v>
       </c>
       <c r="D401" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A401 &amp; " "&amp;C401</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอหนองหงส์ บุรีรัมย์</v>
       </c>
     </row>
@@ -34111,7 +34229,7 @@
         <v>617</v>
       </c>
       <c r="D402" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A402 &amp; " "&amp;C402</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเมืองบุรีรัมย์ บุรีรัมย์</v>
       </c>
     </row>
@@ -34126,7 +34244,7 @@
         <v>617</v>
       </c>
       <c r="D403" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A403 &amp; " "&amp;C403</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอคูเมือง บุรีรัมย์</v>
       </c>
     </row>
@@ -34141,7 +34259,7 @@
         <v>617</v>
       </c>
       <c r="D404" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A404 &amp; " "&amp;C404</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอกระสัง บุรีรัมย์</v>
       </c>
     </row>
@@ -34156,7 +34274,7 @@
         <v>617</v>
       </c>
       <c r="D405" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A405 &amp; " "&amp;C405</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอหนองกี่ บุรีรัมย์</v>
       </c>
     </row>
@@ -34171,7 +34289,7 @@
         <v>617</v>
       </c>
       <c r="D406" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A406 &amp; " "&amp;C406</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอละหานทราย บุรีรัมย์</v>
       </c>
     </row>
@@ -34186,7 +34304,7 @@
         <v>617</v>
       </c>
       <c r="D407" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A407 &amp; " "&amp;C407</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอประโคนชัย บุรีรัมย์</v>
       </c>
     </row>
@@ -34201,7 +34319,7 @@
         <v>617</v>
       </c>
       <c r="D408" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A408 &amp; " "&amp;C408</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอปะคำ บุรีรัมย์</v>
       </c>
     </row>
@@ -34216,7 +34334,7 @@
         <v>617</v>
       </c>
       <c r="D409" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A409 &amp; " "&amp;C409</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอนาโพธิ์ บุรีรัมย์</v>
       </c>
     </row>
@@ -34231,7 +34349,7 @@
         <v>617</v>
       </c>
       <c r="D410" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A410 &amp; " "&amp;C410</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอพลับพลาชัย บุรีรัมย์</v>
       </c>
     </row>
@@ -34246,7 +34364,7 @@
         <v>617</v>
       </c>
       <c r="D411" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A411 &amp; " "&amp;C411</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอห้วยราช บุรีรัมย์</v>
       </c>
     </row>
@@ -34261,7 +34379,7 @@
         <v>617</v>
       </c>
       <c r="D412" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A412 &amp; " "&amp;C412</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอโนนสุวรรณ บุรีรัมย์</v>
       </c>
     </row>
@@ -34276,7 +34394,7 @@
         <v>617</v>
       </c>
       <c r="D413" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A413 &amp; " "&amp;C413</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอชำนิ บุรีรัมย์</v>
       </c>
     </row>
@@ -34291,7 +34409,7 @@
         <v>617</v>
       </c>
       <c r="D414" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A414 &amp; " "&amp;C414</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบ้านใหม่ไชยพจน์ บุรีรัมย์</v>
       </c>
     </row>
@@ -34306,7 +34424,7 @@
         <v>617</v>
       </c>
       <c r="D415" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A415 &amp; " "&amp;C415</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอโนนดินแดง บุรีรัมย์</v>
       </c>
     </row>
@@ -34321,7 +34439,7 @@
         <v>617</v>
       </c>
       <c r="D416" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A416 &amp; " "&amp;C416</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบ้านด่าน บุรีรัมย์</v>
       </c>
     </row>
@@ -34336,7 +34454,7 @@
         <v>617</v>
       </c>
       <c r="D417" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A417 &amp; " "&amp;C417</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอแคนดง บุรีรัมย์</v>
       </c>
     </row>
@@ -34351,7 +34469,7 @@
         <v>617</v>
       </c>
       <c r="D418" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A418 &amp; " "&amp;C418</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเฉลิมพระเกียรติ บุรีรัมย์</v>
       </c>
     </row>
@@ -34366,7 +34484,7 @@
         <v>56</v>
       </c>
       <c r="D419" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A419 &amp; " "&amp;C419</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอหนองเสือ ปทุมธานี</v>
       </c>
     </row>
@@ -34381,7 +34499,7 @@
         <v>56</v>
       </c>
       <c r="D420" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A420 &amp; " "&amp;C420</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเมืองปทุมธานี ปทุมธานี</v>
       </c>
     </row>
@@ -34396,7 +34514,7 @@
         <v>56</v>
       </c>
       <c r="D421" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A421 &amp; " "&amp;C421</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอคลองหลวง ปทุมธานี</v>
       </c>
     </row>
@@ -34411,7 +34529,7 @@
         <v>56</v>
       </c>
       <c r="D422" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A422 &amp; " "&amp;C422</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอธัญบุรี ปทุมธานี</v>
       </c>
     </row>
@@ -34426,7 +34544,7 @@
         <v>56</v>
       </c>
       <c r="D423" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A423 &amp; " "&amp;C423</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอลาดหลุมแก้ว ปทุมธานี</v>
       </c>
     </row>
@@ -34441,7 +34559,7 @@
         <v>56</v>
       </c>
       <c r="D424" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A424 &amp; " "&amp;C424</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอลำลูกกา ปทุมธานี</v>
       </c>
     </row>
@@ -34456,7 +34574,7 @@
         <v>56</v>
       </c>
       <c r="D425" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A425 &amp; " "&amp;C425</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอสามโคก ปทุมธานี</v>
       </c>
     </row>
@@ -34471,7 +34589,7 @@
         <v>988</v>
       </c>
       <c r="D426" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A426 &amp; " "&amp;C426</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอหัวหิน ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34486,7 +34604,7 @@
         <v>988</v>
       </c>
       <c r="D427" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A427 &amp; " "&amp;C427</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเมืองประจวบคีรีขันธ์ ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34501,7 +34619,7 @@
         <v>988</v>
       </c>
       <c r="D428" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A428 &amp; " "&amp;C428</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอกุยบุรี ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34516,7 +34634,7 @@
         <v>988</v>
       </c>
       <c r="D429" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A429 &amp; " "&amp;C429</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอทับสะแก ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34531,7 +34649,7 @@
         <v>988</v>
       </c>
       <c r="D430" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A430 &amp; " "&amp;C430</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบางสะพาน ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34546,7 +34664,7 @@
         <v>988</v>
       </c>
       <c r="D431" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A431 &amp; " "&amp;C431</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบางสะพานน้อย ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34561,7 +34679,7 @@
         <v>988</v>
       </c>
       <c r="D432" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A432 &amp; " "&amp;C432</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอปราณบุรี ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34576,7 +34694,7 @@
         <v>988</v>
       </c>
       <c r="D433" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A433 &amp; " "&amp;C433</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอสามร้อยยอด ประจวบคีรีขันธ์</v>
       </c>
     </row>
@@ -34591,7 +34709,7 @@
         <v>297</v>
       </c>
       <c r="D434" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A434 &amp; " "&amp;C434</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอบ้านสร้าง ปราจีนบุรี</v>
       </c>
     </row>
@@ -34606,7 +34724,7 @@
         <v>297</v>
       </c>
       <c r="D435" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A435 &amp; " "&amp;C435</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอประจันตคาม ปราจีนบุรี</v>
       </c>
     </row>
@@ -34621,7 +34739,7 @@
         <v>297</v>
       </c>
       <c r="D436" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A436 &amp; " "&amp;C436</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอศรีมหาโพธิ ปราจีนบุรี</v>
       </c>
     </row>
@@ -34636,7 +34754,7 @@
         <v>297</v>
       </c>
       <c r="D437" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A437 &amp; " "&amp;C437</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเมืองปราจีนบุรี ปราจีนบุรี</v>
       </c>
     </row>
@@ -34651,7 +34769,7 @@
         <v>297</v>
       </c>
       <c r="D438" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A438 &amp; " "&amp;C438</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอกบินทร์บุรี ปราจีนบุรี</v>
       </c>
     </row>
@@ -34666,7 +34784,7 @@
         <v>297</v>
       </c>
       <c r="D439" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A439 &amp; " "&amp;C439</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอนาดี ปราจีนบุรี</v>
       </c>
     </row>
@@ -34681,7 +34799,7 @@
         <v>297</v>
       </c>
       <c r="D440" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A440 &amp; " "&amp;C440</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอศรีมโหสถ ปราจีนบุรี</v>
       </c>
     </row>
@@ -34696,7 +34814,7 @@
         <v>575</v>
       </c>
       <c r="D441" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A441 &amp; " "&amp;C441</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอเมืองปัตตานี ปัตตานี</v>
       </c>
     </row>
@@ -34711,7 +34829,7 @@
         <v>575</v>
       </c>
       <c r="D442" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A442 &amp; " "&amp;C442</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอโคกโพธิ์ ปัตตานี</v>
       </c>
     </row>
@@ -34726,7 +34844,7 @@
         <v>575</v>
       </c>
       <c r="D443" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A443 &amp; " "&amp;C443</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอหนองจิก ปัตตานี</v>
       </c>
     </row>
@@ -34741,7 +34859,7 @@
         <v>575</v>
       </c>
       <c r="D444" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A444 &amp; " "&amp;C444</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอปะนาเระ ปัตตานี</v>
       </c>
     </row>
@@ -34756,7 +34874,7 @@
         <v>575</v>
       </c>
       <c r="D445" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A445 &amp; " "&amp;C445</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอมายอ ปัตตานี</v>
       </c>
     </row>
@@ -34771,7 +34889,7 @@
         <v>575</v>
       </c>
       <c r="D446" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A446 &amp; " "&amp;C446</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอทุ่งยางแดง ปัตตานี</v>
       </c>
     </row>
@@ -34786,7 +34904,7 @@
         <v>575</v>
       </c>
       <c r="D447" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A447 &amp; " "&amp;C447</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอสายบุรี ปัตตานี</v>
       </c>
     </row>
@@ -34801,7 +34919,7 @@
         <v>575</v>
       </c>
       <c r="D448" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A448 &amp; " "&amp;C448</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอไม้แก่น ปัตตานี</v>
       </c>
     </row>
@@ -34816,7 +34934,7 @@
         <v>575</v>
       </c>
       <c r="D449" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A449 &amp; " "&amp;C449</f>
+        <f t="shared" si="6"/>
         <v>ที่ว่าการอำเภอยะหริ่ง ปัตตานี</v>
       </c>
     </row>
@@ -34831,7 +34949,7 @@
         <v>575</v>
       </c>
       <c r="D450" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A450 &amp; " "&amp;C450</f>
+        <f t="shared" ref="D450:D513" si="7">"ที่ว่าการอำเภอ"&amp;A450 &amp; " "&amp;C450</f>
         <v>ที่ว่าการอำเภอยะรัง ปัตตานี</v>
       </c>
     </row>
@@ -34846,7 +34964,7 @@
         <v>575</v>
       </c>
       <c r="D451" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A451 &amp; " "&amp;C451</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอกะพ้อ ปัตตานี</v>
       </c>
     </row>
@@ -34861,7 +34979,7 @@
         <v>575</v>
       </c>
       <c r="D452" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A452 &amp; " "&amp;C452</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอแม่ลาน ปัตตานี</v>
       </c>
     </row>
@@ -34876,7 +34994,7 @@
         <v>66</v>
       </c>
       <c r="D453" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A453 &amp; " "&amp;C453</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางปะหัน พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34891,7 +35009,7 @@
         <v>66</v>
       </c>
       <c r="D454" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A454 &amp; " "&amp;C454</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอผักไห่ พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34906,7 +35024,7 @@
         <v>66</v>
       </c>
       <c r="D455" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A455 &amp; " "&amp;C455</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอภาชี พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34921,7 +35039,7 @@
         <v>66</v>
       </c>
       <c r="D456" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A456 &amp; " "&amp;C456</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอลาดบัวหลวง พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34936,7 +35054,7 @@
         <v>66</v>
       </c>
       <c r="D457" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A457 &amp; " "&amp;C457</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอวังน้อย พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34951,7 +35069,7 @@
         <v>66</v>
       </c>
       <c r="D458" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A458 &amp; " "&amp;C458</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเสนา พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34966,7 +35084,7 @@
         <v>66</v>
       </c>
       <c r="D459" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A459 &amp; " "&amp;C459</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางซ้าย พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34981,7 +35099,7 @@
         <v>66</v>
       </c>
       <c r="D460" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A460 &amp; " "&amp;C460</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอพระนครศรีอยุธยา พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -34996,7 +35114,7 @@
         <v>66</v>
       </c>
       <c r="D461" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A461 &amp; " "&amp;C461</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอท่าเรือ พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35011,7 +35129,7 @@
         <v>66</v>
       </c>
       <c r="D462" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A462 &amp; " "&amp;C462</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอนครหลวง พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35026,7 +35144,7 @@
         <v>66</v>
       </c>
       <c r="D463" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A463 &amp; " "&amp;C463</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางไทร พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35041,7 +35159,7 @@
         <v>66</v>
       </c>
       <c r="D464" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A464 &amp; " "&amp;C464</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางบาล พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35056,7 +35174,7 @@
         <v>66</v>
       </c>
       <c r="D465" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A465 &amp; " "&amp;C465</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางปะอิน พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35071,7 +35189,7 @@
         <v>66</v>
       </c>
       <c r="D466" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A466 &amp; " "&amp;C466</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภออุทัย พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35086,7 +35204,7 @@
         <v>66</v>
       </c>
       <c r="D467" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A467 &amp; " "&amp;C467</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอมหาราช พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35101,7 +35219,7 @@
         <v>66</v>
       </c>
       <c r="D468" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A468 &amp; " "&amp;C468</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบ้านแพรก พระนครศรีอยุธยา</v>
       </c>
     </row>
@@ -35116,7 +35234,7 @@
         <v>348</v>
       </c>
       <c r="D469" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A469 &amp; " "&amp;C469</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเมืองพะเยา พะเยา</v>
       </c>
     </row>
@@ -35131,7 +35249,7 @@
         <v>348</v>
       </c>
       <c r="D470" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A470 &amp; " "&amp;C470</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอจุน พะเยา</v>
       </c>
     </row>
@@ -35146,7 +35264,7 @@
         <v>348</v>
       </c>
       <c r="D471" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A471 &amp; " "&amp;C471</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเชียงคำ พะเยา</v>
       </c>
     </row>
@@ -35161,7 +35279,7 @@
         <v>348</v>
       </c>
       <c r="D472" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A472 &amp; " "&amp;C472</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเชียงม่วน พะเยา</v>
       </c>
     </row>
@@ -35176,7 +35294,7 @@
         <v>348</v>
       </c>
       <c r="D473" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A473 &amp; " "&amp;C473</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอดอกคำใต้ พะเยา</v>
       </c>
     </row>
@@ -35191,7 +35309,7 @@
         <v>348</v>
       </c>
       <c r="D474" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A474 &amp; " "&amp;C474</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอปง พะเยา</v>
       </c>
     </row>
@@ -35206,7 +35324,7 @@
         <v>348</v>
       </c>
       <c r="D475" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A475 &amp; " "&amp;C475</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอแม่ใจ พะเยา</v>
       </c>
     </row>
@@ -35221,7 +35339,7 @@
         <v>348</v>
       </c>
       <c r="D476" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A476 &amp; " "&amp;C476</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอภูซาง พะเยา</v>
       </c>
     </row>
@@ -35236,7 +35354,7 @@
         <v>348</v>
       </c>
       <c r="D477" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A477 &amp; " "&amp;C477</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอภูกามยาว พะเยา</v>
       </c>
     </row>
@@ -35251,7 +35369,7 @@
         <v>447</v>
       </c>
       <c r="D478" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A478 &amp; " "&amp;C478</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเกาะยาว พังงา</v>
       </c>
     </row>
@@ -35266,7 +35384,7 @@
         <v>447</v>
       </c>
       <c r="D479" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A479 &amp; " "&amp;C479</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเมืองพังงา พังงา</v>
       </c>
     </row>
@@ -35281,7 +35399,7 @@
         <v>447</v>
       </c>
       <c r="D480" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A480 &amp; " "&amp;C480</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอกะปง พังงา</v>
       </c>
     </row>
@@ -35296,7 +35414,7 @@
         <v>447</v>
       </c>
       <c r="D481" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A481 &amp; " "&amp;C481</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอตะกั่วทุ่ง พังงา</v>
       </c>
     </row>
@@ -35311,7 +35429,7 @@
         <v>447</v>
       </c>
       <c r="D482" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A482 &amp; " "&amp;C482</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอตะกั่วป่า พังงา</v>
       </c>
     </row>
@@ -35326,7 +35444,7 @@
         <v>447</v>
       </c>
       <c r="D483" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A483 &amp; " "&amp;C483</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอคุระบุรี พังงา</v>
       </c>
     </row>
@@ -35341,7 +35459,7 @@
         <v>447</v>
       </c>
       <c r="D484" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A484 &amp; " "&amp;C484</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอทับปุด พังงา</v>
       </c>
     </row>
@@ -35356,7 +35474,7 @@
         <v>447</v>
       </c>
       <c r="D485" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A485 &amp; " "&amp;C485</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอท้ายเหมือง พังงา</v>
       </c>
     </row>
@@ -35371,7 +35489,7 @@
         <v>539</v>
       </c>
       <c r="D486" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A486 &amp; " "&amp;C486</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอควนขนุน พัทลุง</v>
       </c>
     </row>
@@ -35386,7 +35504,7 @@
         <v>539</v>
       </c>
       <c r="D487" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A487 &amp; " "&amp;C487</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอตะโหมด พัทลุง</v>
       </c>
     </row>
@@ -35401,7 +35519,7 @@
         <v>539</v>
       </c>
       <c r="D488" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A488 &amp; " "&amp;C488</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเมืองพัทลุง พัทลุง</v>
       </c>
     </row>
@@ -35416,7 +35534,7 @@
         <v>539</v>
       </c>
       <c r="D489" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A489 &amp; " "&amp;C489</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอกงหรา พัทลุง</v>
       </c>
     </row>
@@ -35431,7 +35549,7 @@
         <v>539</v>
       </c>
       <c r="D490" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A490 &amp; " "&amp;C490</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเขาชัยสน พัทลุง</v>
       </c>
     </row>
@@ -35446,7 +35564,7 @@
         <v>539</v>
       </c>
       <c r="D491" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A491 &amp; " "&amp;C491</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอปากพะยูน พัทลุง</v>
       </c>
     </row>
@@ -35461,7 +35579,7 @@
         <v>539</v>
       </c>
       <c r="D492" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A492 &amp; " "&amp;C492</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอศรีบรรพต พัทลุง</v>
       </c>
     </row>
@@ -35476,7 +35594,7 @@
         <v>539</v>
       </c>
       <c r="D493" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A493 &amp; " "&amp;C493</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอป่าบอน พัทลุง</v>
       </c>
     </row>
@@ -35491,7 +35609,7 @@
         <v>539</v>
       </c>
       <c r="D494" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A494 &amp; " "&amp;C494</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางแก้ว พัทลุง</v>
       </c>
     </row>
@@ -35506,7 +35624,7 @@
         <v>539</v>
       </c>
       <c r="D495" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A495 &amp; " "&amp;C495</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอป่าพยอม พัทลุง</v>
       </c>
     </row>
@@ -35521,7 +35639,7 @@
         <v>539</v>
       </c>
       <c r="D496" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A496 &amp; " "&amp;C496</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอศรีนครินทร์ พัทลุง</v>
       </c>
     </row>
@@ -35536,7 +35654,7 @@
         <v>195</v>
       </c>
       <c r="D497" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A497 &amp; " "&amp;C497</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเมืองพิจิตร พิจิตร</v>
       </c>
     </row>
@@ -35551,7 +35669,7 @@
         <v>195</v>
       </c>
       <c r="D498" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A498 &amp; " "&amp;C498</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอวังทรายพูน พิจิตร</v>
       </c>
     </row>
@@ -35566,7 +35684,7 @@
         <v>195</v>
       </c>
       <c r="D499" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A499 &amp; " "&amp;C499</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอโพธิ์ประทับช้าง พิจิตร</v>
       </c>
     </row>
@@ -35581,7 +35699,7 @@
         <v>195</v>
       </c>
       <c r="D500" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A500 &amp; " "&amp;C500</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอตะพานหิน พิจิตร</v>
       </c>
     </row>
@@ -35596,7 +35714,7 @@
         <v>195</v>
       </c>
       <c r="D501" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A501 &amp; " "&amp;C501</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางมูลนาก พิจิตร</v>
       </c>
     </row>
@@ -35611,7 +35729,7 @@
         <v>195</v>
       </c>
       <c r="D502" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A502 &amp; " "&amp;C502</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอโพทะเล พิจิตร</v>
       </c>
     </row>
@@ -35626,7 +35744,7 @@
         <v>195</v>
       </c>
       <c r="D503" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A503 &amp; " "&amp;C503</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอสามง่าม พิจิตร</v>
       </c>
     </row>
@@ -35641,7 +35759,7 @@
         <v>195</v>
       </c>
       <c r="D504" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A504 &amp; " "&amp;C504</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอทับคล้อ พิจิตร</v>
       </c>
     </row>
@@ -35656,7 +35774,7 @@
         <v>195</v>
       </c>
       <c r="D505" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A505 &amp; " "&amp;C505</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอสากเหล็ก พิจิตร</v>
       </c>
     </row>
@@ -35671,7 +35789,7 @@
         <v>195</v>
       </c>
       <c r="D506" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A506 &amp; " "&amp;C506</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบึงนาราง พิจิตร</v>
       </c>
     </row>
@@ -35686,7 +35804,7 @@
         <v>195</v>
       </c>
       <c r="D507" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A507 &amp; " "&amp;C507</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอดงเจริญ พิจิตร</v>
       </c>
     </row>
@@ -35701,7 +35819,7 @@
         <v>195</v>
       </c>
       <c r="D508" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A508 &amp; " "&amp;C508</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอวชิรบารมี พิจิตร</v>
       </c>
     </row>
@@ -35716,7 +35834,7 @@
         <v>185</v>
       </c>
       <c r="D509" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A509 &amp; " "&amp;C509</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอเมืองพิษณุโลก พิษณุโลก</v>
       </c>
     </row>
@@ -35731,7 +35849,7 @@
         <v>185</v>
       </c>
       <c r="D510" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A510 &amp; " "&amp;C510</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอนครไทย พิษณุโลก</v>
       </c>
     </row>
@@ -35746,7 +35864,7 @@
         <v>185</v>
       </c>
       <c r="D511" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A511 &amp; " "&amp;C511</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอชาติตระการ พิษณุโลก</v>
       </c>
     </row>
@@ -35761,7 +35879,7 @@
         <v>185</v>
       </c>
       <c r="D512" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A512 &amp; " "&amp;C512</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางระกำ พิษณุโลก</v>
       </c>
     </row>
@@ -35776,7 +35894,7 @@
         <v>185</v>
       </c>
       <c r="D513" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A513 &amp; " "&amp;C513</f>
+        <f t="shared" si="7"/>
         <v>ที่ว่าการอำเภอบางกระทุ่ม พิษณุโลก</v>
       </c>
     </row>
@@ -35791,7 +35909,7 @@
         <v>185</v>
       </c>
       <c r="D514" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A514 &amp; " "&amp;C514</f>
+        <f t="shared" ref="D514:D577" si="8">"ที่ว่าการอำเภอ"&amp;A514 &amp; " "&amp;C514</f>
         <v>ที่ว่าการอำเภอพรหมพิราม พิษณุโลก</v>
       </c>
     </row>
@@ -35806,7 +35924,7 @@
         <v>185</v>
       </c>
       <c r="D515" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A515 &amp; " "&amp;C515</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอวัดโบสถ์ พิษณุโลก</v>
       </c>
     </row>
@@ -35821,7 +35939,7 @@
         <v>185</v>
       </c>
       <c r="D516" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A516 &amp; " "&amp;C516</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอวังทอง พิษณุโลก</v>
       </c>
     </row>
@@ -35836,7 +35954,7 @@
         <v>185</v>
       </c>
       <c r="D517" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A517 &amp; " "&amp;C517</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเนินมะปราง พิษณุโลก</v>
       </c>
     </row>
@@ -35851,7 +35969,7 @@
         <v>983</v>
       </c>
       <c r="D518" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A518 &amp; " "&amp;C518</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองเพชรบุรี เพชรบุรี</v>
       </c>
     </row>
@@ -35866,7 +35984,7 @@
         <v>983</v>
       </c>
       <c r="D519" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A519 &amp; " "&amp;C519</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเขาย้อย เพชรบุรี</v>
       </c>
     </row>
@@ -35881,7 +35999,7 @@
         <v>983</v>
       </c>
       <c r="D520" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A520 &amp; " "&amp;C520</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอหนองหญ้าปล้อง เพชรบุรี</v>
       </c>
     </row>
@@ -35896,7 +36014,7 @@
         <v>983</v>
       </c>
       <c r="D521" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A521 &amp; " "&amp;C521</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอท่ายาง เพชรบุรี</v>
       </c>
     </row>
@@ -35911,7 +36029,7 @@
         <v>983</v>
       </c>
       <c r="D522" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A522 &amp; " "&amp;C522</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอชะอำ เพชรบุรี</v>
       </c>
     </row>
@@ -35926,7 +36044,7 @@
         <v>983</v>
       </c>
       <c r="D523" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A523 &amp; " "&amp;C523</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอบ้านลาด เพชรบุรี</v>
       </c>
     </row>
@@ -35941,7 +36059,7 @@
         <v>983</v>
       </c>
       <c r="D524" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A524 &amp; " "&amp;C524</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอบ้านแหลม เพชรบุรี</v>
       </c>
     </row>
@@ -35956,7 +36074,7 @@
         <v>983</v>
       </c>
       <c r="D525" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A525 &amp; " "&amp;C525</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอแก่งกระจาน เพชรบุรี</v>
       </c>
     </row>
@@ -35971,7 +36089,7 @@
         <v>210</v>
       </c>
       <c r="D526" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A526 &amp; " "&amp;C526</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองเพชรบูรณ์ เพชรบูรณ์</v>
       </c>
     </row>
@@ -35986,7 +36104,7 @@
         <v>210</v>
       </c>
       <c r="D527" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A527 &amp; " "&amp;C527</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอชนแดน เพชรบูรณ์</v>
       </c>
     </row>
@@ -36001,7 +36119,7 @@
         <v>210</v>
       </c>
       <c r="D528" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A528 &amp; " "&amp;C528</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอหล่มสัก เพชรบูรณ์</v>
       </c>
     </row>
@@ -36016,7 +36134,7 @@
         <v>210</v>
       </c>
       <c r="D529" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A529 &amp; " "&amp;C529</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอหล่มเก่า เพชรบูรณ์</v>
       </c>
     </row>
@@ -36031,7 +36149,7 @@
         <v>210</v>
       </c>
       <c r="D530" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A530 &amp; " "&amp;C530</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอวิเชียรบุรี เพชรบูรณ์</v>
       </c>
     </row>
@@ -36046,7 +36164,7 @@
         <v>210</v>
       </c>
       <c r="D531" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A531 &amp; " "&amp;C531</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอศรีเทพ เพชรบูรณ์</v>
       </c>
     </row>
@@ -36061,7 +36179,7 @@
         <v>210</v>
       </c>
       <c r="D532" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A532 &amp; " "&amp;C532</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอหนองไผ่ เพชรบูรณ์</v>
       </c>
     </row>
@@ -36076,7 +36194,7 @@
         <v>210</v>
       </c>
       <c r="D533" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A533 &amp; " "&amp;C533</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอบึงสามพัน เพชรบูรณ์</v>
       </c>
     </row>
@@ -36091,7 +36209,7 @@
         <v>210</v>
       </c>
       <c r="D534" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A534 &amp; " "&amp;C534</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอน้ำหนาว เพชรบูรณ์</v>
       </c>
     </row>
@@ -36106,7 +36224,7 @@
         <v>210</v>
       </c>
       <c r="D535" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A535 &amp; " "&amp;C535</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอวังโป่ง เพชรบูรณ์</v>
       </c>
     </row>
@@ -36121,7 +36239,7 @@
         <v>210</v>
       </c>
       <c r="D536" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A536 &amp; " "&amp;C536</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเขาค้อ เพชรบูรณ์</v>
       </c>
     </row>
@@ -36136,7 +36254,7 @@
         <v>326</v>
       </c>
       <c r="D537" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A537 &amp; " "&amp;C537</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอลอง แพร่</v>
       </c>
     </row>
@@ -36151,7 +36269,7 @@
         <v>326</v>
       </c>
       <c r="D538" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A538 &amp; " "&amp;C538</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอสูงเม่น แพร่</v>
       </c>
     </row>
@@ -36166,7 +36284,7 @@
         <v>326</v>
       </c>
       <c r="D539" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A539 &amp; " "&amp;C539</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเด่นชัย แพร่</v>
       </c>
     </row>
@@ -36181,7 +36299,7 @@
         <v>326</v>
       </c>
       <c r="D540" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A540 &amp; " "&amp;C540</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอสอง แพร่</v>
       </c>
     </row>
@@ -36196,7 +36314,7 @@
         <v>326</v>
       </c>
       <c r="D541" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A541 &amp; " "&amp;C541</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอวังชิ้น แพร่</v>
       </c>
     </row>
@@ -36211,7 +36329,7 @@
         <v>326</v>
       </c>
       <c r="D542" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A542 &amp; " "&amp;C542</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอหนองม่วงไข่ แพร่</v>
       </c>
     </row>
@@ -36226,7 +36344,7 @@
         <v>326</v>
       </c>
       <c r="D543" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A543 &amp; " "&amp;C543</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองแพร่ แพร่</v>
       </c>
     </row>
@@ -36241,7 +36359,7 @@
         <v>326</v>
       </c>
       <c r="D544" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A544 &amp; " "&amp;C544</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอร้องกวาง แพร่</v>
       </c>
     </row>
@@ -36256,7 +36374,7 @@
         <v>488</v>
       </c>
       <c r="D545" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A545 &amp; " "&amp;C545</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองภูเก็ต ภูเก็ต</v>
       </c>
     </row>
@@ -36271,7 +36389,7 @@
         <v>488</v>
       </c>
       <c r="D546" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A546 &amp; " "&amp;C546</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอกะทู้ ภูเก็ต</v>
       </c>
     </row>
@@ -36286,7 +36404,7 @@
         <v>488</v>
       </c>
       <c r="D547" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A547 &amp; " "&amp;C547</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอถลาง ภูเก็ต</v>
       </c>
     </row>
@@ -36301,7 +36419,7 @@
         <v>742</v>
       </c>
       <c r="D548" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A548 &amp; " "&amp;C548</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองมหาสารคาม มหาสารคาม</v>
       </c>
     </row>
@@ -36316,7 +36434,7 @@
         <v>742</v>
       </c>
       <c r="D549" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A549 &amp; " "&amp;C549</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอแกดำ มหาสารคาม</v>
       </c>
     </row>
@@ -36331,7 +36449,7 @@
         <v>742</v>
       </c>
       <c r="D550" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A550 &amp; " "&amp;C550</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอโกสุมพิสัย มหาสารคาม</v>
       </c>
     </row>
@@ -36346,7 +36464,7 @@
         <v>742</v>
       </c>
       <c r="D551" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A551 &amp; " "&amp;C551</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอกันทรวิชัย มหาสารคาม</v>
       </c>
     </row>
@@ -36361,7 +36479,7 @@
         <v>742</v>
       </c>
       <c r="D552" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A552 &amp; " "&amp;C552</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเชียงยืน มหาสารคาม</v>
       </c>
     </row>
@@ -36376,7 +36494,7 @@
         <v>742</v>
       </c>
       <c r="D553" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A553 &amp; " "&amp;C553</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอบรบือ มหาสารคาม</v>
       </c>
     </row>
@@ -36391,7 +36509,7 @@
         <v>742</v>
       </c>
       <c r="D554" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A554 &amp; " "&amp;C554</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอนาเชือก มหาสารคาม</v>
       </c>
     </row>
@@ -36406,7 +36524,7 @@
         <v>742</v>
       </c>
       <c r="D555" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A555 &amp; " "&amp;C555</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอพยัคฆภูมิพิสัย มหาสารคาม</v>
       </c>
     </row>
@@ -36421,7 +36539,7 @@
         <v>742</v>
       </c>
       <c r="D556" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A556 &amp; " "&amp;C556</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอวาปีปทุม มหาสารคาม</v>
       </c>
     </row>
@@ -36436,7 +36554,7 @@
         <v>742</v>
       </c>
       <c r="D557" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A557 &amp; " "&amp;C557</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอนาดูน มหาสารคาม</v>
       </c>
     </row>
@@ -36451,7 +36569,7 @@
         <v>742</v>
       </c>
       <c r="D558" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A558 &amp; " "&amp;C558</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอยางสีสุราช มหาสารคาม</v>
       </c>
     </row>
@@ -36466,7 +36584,7 @@
         <v>742</v>
       </c>
       <c r="D559" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A559 &amp; " "&amp;C559</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอกุดรัง มหาสารคาม</v>
       </c>
     </row>
@@ -36481,7 +36599,7 @@
         <v>742</v>
       </c>
       <c r="D560" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A560 &amp; " "&amp;C560</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอชื่นชม มหาสารคาม</v>
       </c>
     </row>
@@ -36496,7 +36614,7 @@
         <v>849</v>
       </c>
       <c r="D561" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A561 &amp; " "&amp;C561</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองมุกดาหาร มุกดาหาร</v>
       </c>
     </row>
@@ -36511,7 +36629,7 @@
         <v>849</v>
       </c>
       <c r="D562" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A562 &amp; " "&amp;C562</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอนิคมคำสร้อย มุกดาหาร</v>
       </c>
     </row>
@@ -36526,7 +36644,7 @@
         <v>849</v>
       </c>
       <c r="D563" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A563 &amp; " "&amp;C563</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอดอนตาล มุกดาหาร</v>
       </c>
     </row>
@@ -36541,7 +36659,7 @@
         <v>849</v>
       </c>
       <c r="D564" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A564 &amp; " "&amp;C564</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอดงหลวง มุกดาหาร</v>
       </c>
     </row>
@@ -36556,7 +36674,7 @@
         <v>849</v>
       </c>
       <c r="D565" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A565 &amp; " "&amp;C565</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอคำชะอี มุกดาหาร</v>
       </c>
     </row>
@@ -36571,7 +36689,7 @@
         <v>849</v>
       </c>
       <c r="D566" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A566 &amp; " "&amp;C566</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอว่านใหญ่ มุกดาหาร</v>
       </c>
     </row>
@@ -36586,7 +36704,7 @@
         <v>849</v>
       </c>
       <c r="D567" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A567 &amp; " "&amp;C567</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอหนองสูง มุกดาหาร</v>
       </c>
     </row>
@@ -36601,7 +36719,7 @@
         <v>397</v>
       </c>
       <c r="D568" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A568 &amp; " "&amp;C568</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอแม่สะเรียง แม่ฮ่องสอน</v>
       </c>
     </row>
@@ -36616,7 +36734,7 @@
         <v>397</v>
       </c>
       <c r="D569" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A569 &amp; " "&amp;C569</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอแม่ลาน้อย แม่ฮ่องสอน</v>
       </c>
     </row>
@@ -36631,7 +36749,7 @@
         <v>397</v>
       </c>
       <c r="D570" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A570 &amp; " "&amp;C570</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอสบเมย แม่ฮ่องสอน</v>
       </c>
     </row>
@@ -36646,7 +36764,7 @@
         <v>397</v>
       </c>
       <c r="D571" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A571 &amp; " "&amp;C571</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองแม่ฮ่องสอน แม่ฮ่องสอน</v>
       </c>
     </row>
@@ -36661,7 +36779,7 @@
         <v>397</v>
       </c>
       <c r="D572" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A572 &amp; " "&amp;C572</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอขุนยวม แม่ฮ่องสอน</v>
       </c>
     </row>
@@ -36676,7 +36794,7 @@
         <v>397</v>
       </c>
       <c r="D573" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A573 &amp; " "&amp;C573</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอปาย แม่ฮ่องสอน</v>
       </c>
     </row>
@@ -36691,7 +36809,7 @@
         <v>397</v>
       </c>
       <c r="D574" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A574 &amp; " "&amp;C574</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอปางมะผ้า แม่ฮ่องสอน</v>
       </c>
     </row>
@@ -36706,7 +36824,7 @@
         <v>888</v>
       </c>
       <c r="D575" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A575 &amp; " "&amp;C575</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอเมืองยโสธร ยโสธร</v>
       </c>
     </row>
@@ -36721,7 +36839,7 @@
         <v>888</v>
       </c>
       <c r="D576" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A576 &amp; " "&amp;C576</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอทรายมูล ยโสธร</v>
       </c>
     </row>
@@ -36736,7 +36854,7 @@
         <v>888</v>
       </c>
       <c r="D577" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A577 &amp; " "&amp;C577</f>
+        <f t="shared" si="8"/>
         <v>ที่ว่าการอำเภอกุดชุม ยโสธร</v>
       </c>
     </row>
@@ -36751,7 +36869,7 @@
         <v>888</v>
       </c>
       <c r="D578" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A578 &amp; " "&amp;C578</f>
+        <f t="shared" ref="D578:D641" si="9">"ที่ว่าการอำเภอ"&amp;A578 &amp; " "&amp;C578</f>
         <v>ที่ว่าการอำเภอคำเขื่อนแก้ว ยโสธร</v>
       </c>
     </row>
@@ -36766,7 +36884,7 @@
         <v>888</v>
       </c>
       <c r="D579" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A579 &amp; " "&amp;C579</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอป่าติ้ว ยโสธร</v>
       </c>
     </row>
@@ -36781,7 +36899,7 @@
         <v>888</v>
       </c>
       <c r="D580" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A580 &amp; " "&amp;C580</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอมหาชนะชัย ยโสธร</v>
       </c>
     </row>
@@ -36796,7 +36914,7 @@
         <v>888</v>
       </c>
       <c r="D581" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A581 &amp; " "&amp;C581</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอค้อวัง ยโสธร</v>
       </c>
     </row>
@@ -36811,7 +36929,7 @@
         <v>888</v>
       </c>
       <c r="D582" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A582 &amp; " "&amp;C582</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเลิงนกทา ยโสธร</v>
       </c>
     </row>
@@ -36826,7 +36944,7 @@
         <v>888</v>
       </c>
       <c r="D583" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A583 &amp; " "&amp;C583</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอไทยเจริญ ยโสธร</v>
       </c>
     </row>
@@ -36841,7 +36959,7 @@
         <v>596</v>
       </c>
       <c r="D584" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A584 &amp; " "&amp;C584</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมืองยะลา ยะลา</v>
       </c>
     </row>
@@ -36856,7 +36974,7 @@
         <v>596</v>
       </c>
       <c r="D585" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A585 &amp; " "&amp;C585</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเบตง ยะลา</v>
       </c>
     </row>
@@ -36871,7 +36989,7 @@
         <v>596</v>
       </c>
       <c r="D586" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A586 &amp; " "&amp;C586</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอบันนังสตา ยะลา</v>
       </c>
     </row>
@@ -36886,7 +37004,7 @@
         <v>596</v>
       </c>
       <c r="D587" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A587 &amp; " "&amp;C587</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอธารโต ยะลา</v>
       </c>
     </row>
@@ -36901,7 +37019,7 @@
         <v>596</v>
       </c>
       <c r="D588" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A588 &amp; " "&amp;C588</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอยะหา ยะลา</v>
       </c>
     </row>
@@ -36916,7 +37034,7 @@
         <v>596</v>
       </c>
       <c r="D589" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A589 &amp; " "&amp;C589</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอรามัน ยะลา</v>
       </c>
     </row>
@@ -36931,7 +37049,7 @@
         <v>596</v>
       </c>
       <c r="D590" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A590 &amp; " "&amp;C590</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอกาบัง ยะลา</v>
       </c>
     </row>
@@ -36946,7 +37064,7 @@
         <v>596</v>
       </c>
       <c r="D591" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A591 &amp; " "&amp;C591</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอกรงปีนัง ยะลา</v>
       </c>
     </row>
@@ -36961,7 +37079,7 @@
         <v>780</v>
       </c>
       <c r="D592" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A592 &amp; " "&amp;C592</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอจตุรพักตรพิมาน ร้อยเอ็ด</v>
       </c>
     </row>
@@ -36976,7 +37094,7 @@
         <v>780</v>
       </c>
       <c r="D593" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A593 &amp; " "&amp;C593</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอธวัชบุรี ร้อยเอ็ด</v>
       </c>
     </row>
@@ -36991,7 +37109,7 @@
         <v>780</v>
       </c>
       <c r="D594" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A594 &amp; " "&amp;C594</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอพนมไพร ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37006,7 +37124,7 @@
         <v>780</v>
       </c>
       <c r="D595" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A595 &amp; " "&amp;C595</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอโพนทอง ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37021,7 +37139,7 @@
         <v>780</v>
       </c>
       <c r="D596" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A596 &amp; " "&amp;C596</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอโพธิ์ชัย ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37036,7 +37154,7 @@
         <v>780</v>
       </c>
       <c r="D597" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A597 &amp; " "&amp;C597</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอหนองพอก ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37051,7 +37169,7 @@
         <v>780</v>
       </c>
       <c r="D598" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A598 &amp; " "&amp;C598</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเสลภูมิ ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37066,7 +37184,7 @@
         <v>780</v>
       </c>
       <c r="D599" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A599 &amp; " "&amp;C599</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอสุวรรณภูมิ ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37081,7 +37199,7 @@
         <v>780</v>
       </c>
       <c r="D600" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A600 &amp; " "&amp;C600</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมืองร้อยเอ็ด ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37096,7 +37214,7 @@
         <v>780</v>
       </c>
       <c r="D601" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A601 &amp; " "&amp;C601</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเกษตรวิสัย ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37111,7 +37229,7 @@
         <v>780</v>
       </c>
       <c r="D602" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A602 &amp; " "&amp;C602</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอปทุมรัตต์ ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37126,7 +37244,7 @@
         <v>780</v>
       </c>
       <c r="D603" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A603 &amp; " "&amp;C603</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมืองสรวง ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37141,7 +37259,7 @@
         <v>780</v>
       </c>
       <c r="D604" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A604 &amp; " "&amp;C604</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอโพนทราย ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37156,7 +37274,7 @@
         <v>780</v>
       </c>
       <c r="D605" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A605 &amp; " "&amp;C605</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภออาจสามารถ ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37171,7 +37289,7 @@
         <v>780</v>
       </c>
       <c r="D606" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A606 &amp; " "&amp;C606</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมยวดี ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37186,7 +37304,7 @@
         <v>780</v>
       </c>
       <c r="D607" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A607 &amp; " "&amp;C607</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอศรีสมเด็จ ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37201,7 +37319,7 @@
         <v>780</v>
       </c>
       <c r="D608" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A608 &amp; " "&amp;C608</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอจังหาร ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37216,7 +37334,7 @@
         <v>780</v>
       </c>
       <c r="D609" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A609 &amp; " "&amp;C609</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเชียงขวัญ ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37231,7 +37349,7 @@
         <v>780</v>
       </c>
       <c r="D610" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A610 &amp; " "&amp;C610</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอหนองฮี ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37246,7 +37364,7 @@
         <v>780</v>
       </c>
       <c r="D611" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A611 &amp; " "&amp;C611</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอทุ่งเขาหลวง ร้อยเอ็ด</v>
       </c>
     </row>
@@ -37261,7 +37379,7 @@
         <v>526</v>
       </c>
       <c r="D612" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A612 &amp; " "&amp;C612</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมืองระนอง ระนอง</v>
       </c>
     </row>
@@ -37276,7 +37394,7 @@
         <v>526</v>
       </c>
       <c r="D613" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A613 &amp; " "&amp;C613</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอละอุ่น ระนอง</v>
       </c>
     </row>
@@ -37291,7 +37409,7 @@
         <v>526</v>
       </c>
       <c r="D614" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A614 &amp; " "&amp;C614</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอกะเปอร์ ระนอง</v>
       </c>
     </row>
@@ -37306,7 +37424,7 @@
         <v>526</v>
       </c>
       <c r="D615" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A615 &amp; " "&amp;C615</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอกระบุรี ระนอง</v>
       </c>
     </row>
@@ -37321,7 +37439,7 @@
         <v>526</v>
       </c>
       <c r="D616" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A616 &amp; " "&amp;C616</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอสุขสำราญ ระนอง</v>
       </c>
     </row>
@@ -37336,7 +37454,7 @@
         <v>305</v>
       </c>
       <c r="D617" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A617 &amp; " "&amp;C617</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมืองระยอง ระยอง</v>
       </c>
     </row>
@@ -37351,7 +37469,7 @@
         <v>305</v>
       </c>
       <c r="D618" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A618 &amp; " "&amp;C618</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอบ้านฉาง ระยอง</v>
       </c>
     </row>
@@ -37366,7 +37484,7 @@
         <v>305</v>
       </c>
       <c r="D619" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A619 &amp; " "&amp;C619</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอแกลง ระยอง</v>
       </c>
     </row>
@@ -37381,7 +37499,7 @@
         <v>305</v>
       </c>
       <c r="D620" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A620 &amp; " "&amp;C620</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอวังจันทร์ ระยอง</v>
       </c>
     </row>
@@ -37396,7 +37514,7 @@
         <v>305</v>
       </c>
       <c r="D621" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A621 &amp; " "&amp;C621</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอบ้านค่าย ระยอง</v>
       </c>
     </row>
@@ -37411,7 +37529,7 @@
         <v>305</v>
       </c>
       <c r="D622" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A622 &amp; " "&amp;C622</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอปลวกแดง ระยอง</v>
       </c>
     </row>
@@ -37426,7 +37544,7 @@
         <v>305</v>
       </c>
       <c r="D623" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A623 &amp; " "&amp;C623</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเขาชะเมา ระยอง</v>
       </c>
     </row>
@@ -37441,7 +37559,7 @@
         <v>305</v>
       </c>
       <c r="D624" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A624 &amp; " "&amp;C624</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอนิคมพัฒนา ระยอง</v>
       </c>
     </row>
@@ -37456,7 +37574,7 @@
         <v>958</v>
       </c>
       <c r="D625" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A625 &amp; " "&amp;C625</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมืองราชบุรี ราชบุรี</v>
       </c>
     </row>
@@ -37471,7 +37589,7 @@
         <v>958</v>
       </c>
       <c r="D626" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A626 &amp; " "&amp;C626</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอจอมบึง ราชบุรี</v>
       </c>
     </row>
@@ -37486,7 +37604,7 @@
         <v>958</v>
       </c>
       <c r="D627" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A627 &amp; " "&amp;C627</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอสวนผึ้ง ราชบุรี</v>
       </c>
     </row>
@@ -37501,7 +37619,7 @@
         <v>958</v>
       </c>
       <c r="D628" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A628 &amp; " "&amp;C628</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอดำเนินสะดวก ราชบุรี</v>
       </c>
     </row>
@@ -37516,7 +37634,7 @@
         <v>958</v>
       </c>
       <c r="D629" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A629 &amp; " "&amp;C629</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอบ้านโป่ง ราชบุรี</v>
       </c>
     </row>
@@ -37531,7 +37649,7 @@
         <v>958</v>
       </c>
       <c r="D630" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A630 &amp; " "&amp;C630</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอบางแพ ราชบุรี</v>
       </c>
     </row>
@@ -37546,7 +37664,7 @@
         <v>958</v>
       </c>
       <c r="D631" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A631 &amp; " "&amp;C631</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอโพธาราม ราชบุรี</v>
       </c>
     </row>
@@ -37561,7 +37679,7 @@
         <v>958</v>
       </c>
       <c r="D632" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A632 &amp; " "&amp;C632</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอปากท่อ ราชบุรี</v>
       </c>
     </row>
@@ -37576,7 +37694,7 @@
         <v>958</v>
       </c>
       <c r="D633" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A633 &amp; " "&amp;C633</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอวัดเพลง ราชบุรี</v>
       </c>
     </row>
@@ -37591,7 +37709,7 @@
         <v>958</v>
       </c>
       <c r="D634" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A634 &amp; " "&amp;C634</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอบ้านคา ราชบุรี</v>
       </c>
     </row>
@@ -37606,7 +37724,7 @@
         <v>82</v>
       </c>
       <c r="D635" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A635 &amp; " "&amp;C635</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอเมืองลพบุรี ลพบุรี</v>
       </c>
     </row>
@@ -37621,7 +37739,7 @@
         <v>82</v>
       </c>
       <c r="D636" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A636 &amp; " "&amp;C636</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอพัฒนานิคม ลพบุรี</v>
       </c>
     </row>
@@ -37636,7 +37754,7 @@
         <v>82</v>
       </c>
       <c r="D637" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A637 &amp; " "&amp;C637</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอโคกสำโรง ลพบุรี</v>
       </c>
     </row>
@@ -37651,7 +37769,7 @@
         <v>82</v>
       </c>
       <c r="D638" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A638 &amp; " "&amp;C638</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอชัยบาดาล ลพบุรี</v>
       </c>
     </row>
@@ -37666,7 +37784,7 @@
         <v>82</v>
       </c>
       <c r="D639" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A639 &amp; " "&amp;C639</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอท่าวุ้ง ลพบุรี</v>
       </c>
     </row>
@@ -37681,7 +37799,7 @@
         <v>82</v>
       </c>
       <c r="D640" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A640 &amp; " "&amp;C640</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอหนองม่วง ลพบุรี</v>
       </c>
     </row>
@@ -37696,7 +37814,7 @@
         <v>82</v>
       </c>
       <c r="D641" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A641 &amp; " "&amp;C641</f>
+        <f t="shared" si="9"/>
         <v>ที่ว่าการอำเภอบ้านหมี่ ลพบุรี</v>
       </c>
     </row>
@@ -37711,7 +37829,7 @@
         <v>82</v>
       </c>
       <c r="D642" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A642 &amp; " "&amp;C642</f>
+        <f t="shared" ref="D642:D705" si="10">"ที่ว่าการอำเภอ"&amp;A642 &amp; " "&amp;C642</f>
         <v>ที่ว่าการอำเภอท่าหลวง ลพบุรี</v>
       </c>
     </row>
@@ -37726,7 +37844,7 @@
         <v>82</v>
       </c>
       <c r="D643" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A643 &amp; " "&amp;C643</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอสระโบสถ์ ลพบุรี</v>
       </c>
     </row>
@@ -37741,7 +37859,7 @@
         <v>82</v>
       </c>
       <c r="D644" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A644 &amp; " "&amp;C644</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอโคกเจริญ ลพบุรี</v>
       </c>
     </row>
@@ -37756,7 +37874,7 @@
         <v>82</v>
       </c>
       <c r="D645" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A645 &amp; " "&amp;C645</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอลำสนธิ ลพบุรี</v>
       </c>
     </row>
@@ -37771,7 +37889,7 @@
         <v>401</v>
       </c>
       <c r="D646" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A646 &amp; " "&amp;C646</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอแม่พริก ลำปาง</v>
       </c>
     </row>
@@ -37786,7 +37904,7 @@
         <v>401</v>
       </c>
       <c r="D647" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A647 &amp; " "&amp;C647</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอแม่ทะ ลำปาง</v>
       </c>
     </row>
@@ -37801,7 +37919,7 @@
         <v>401</v>
       </c>
       <c r="D648" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A648 &amp; " "&amp;C648</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอสบปราบ ลำปาง</v>
       </c>
     </row>
@@ -37816,7 +37934,7 @@
         <v>401</v>
       </c>
       <c r="D649" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A649 &amp; " "&amp;C649</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอห้างฉัตร ลำปาง</v>
       </c>
     </row>
@@ -37831,7 +37949,7 @@
         <v>401</v>
       </c>
       <c r="D650" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A650 &amp; " "&amp;C650</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเมืองปาน ลำปาง</v>
       </c>
     </row>
@@ -37846,7 +37964,7 @@
         <v>401</v>
       </c>
       <c r="D651" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A651 &amp; " "&amp;C651</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเมืองลำปาง ลำปาง</v>
       </c>
     </row>
@@ -37861,7 +37979,7 @@
         <v>401</v>
       </c>
       <c r="D652" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A652 &amp; " "&amp;C652</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอแม่เมาะ ลำปาง</v>
       </c>
     </row>
@@ -37876,7 +37994,7 @@
         <v>401</v>
       </c>
       <c r="D653" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A653 &amp; " "&amp;C653</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเกาะคา ลำปาง</v>
       </c>
     </row>
@@ -37891,7 +38009,7 @@
         <v>401</v>
       </c>
       <c r="D654" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A654 &amp; " "&amp;C654</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเสริมงาม ลำปาง</v>
       </c>
     </row>
@@ -37906,7 +38024,7 @@
         <v>401</v>
       </c>
       <c r="D655" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A655 &amp; " "&amp;C655</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภองาว ลำปาง</v>
       </c>
     </row>
@@ -37921,7 +38039,7 @@
         <v>401</v>
       </c>
       <c r="D656" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A656 &amp; " "&amp;C656</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอแจ้ห่ม ลำปาง</v>
       </c>
     </row>
@@ -37936,7 +38054,7 @@
         <v>401</v>
       </c>
       <c r="D657" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A657 &amp; " "&amp;C657</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอวังเหนือ ลำปาง</v>
       </c>
     </row>
@@ -37951,7 +38069,7 @@
         <v>401</v>
       </c>
       <c r="D658" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A658 &amp; " "&amp;C658</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเถิน ลำปาง</v>
       </c>
     </row>
@@ -37966,7 +38084,7 @@
         <v>381</v>
       </c>
       <c r="D659" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A659 &amp; " "&amp;C659</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเมืองลำพูน ลำพูน</v>
       </c>
     </row>
@@ -37981,7 +38099,7 @@
         <v>381</v>
       </c>
       <c r="D660" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A660 &amp; " "&amp;C660</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอแม่ทา ลำพูน</v>
       </c>
     </row>
@@ -37996,7 +38114,7 @@
         <v>381</v>
       </c>
       <c r="D661" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A661 &amp; " "&amp;C661</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอบ้านโฮ่ง ลำพูน</v>
       </c>
     </row>
@@ -38011,7 +38129,7 @@
         <v>381</v>
       </c>
       <c r="D662" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A662 &amp; " "&amp;C662</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอลี้ ลำพูน</v>
       </c>
     </row>
@@ -38026,7 +38144,7 @@
         <v>381</v>
       </c>
       <c r="D663" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A663 &amp; " "&amp;C663</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอทุ่งหัวช้าง ลำพูน</v>
       </c>
     </row>
@@ -38041,7 +38159,7 @@
         <v>381</v>
       </c>
       <c r="D664" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A664 &amp; " "&amp;C664</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอป่าซาง ลำพูน</v>
       </c>
     </row>
@@ -38056,7 +38174,7 @@
         <v>381</v>
       </c>
       <c r="D665" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A665 &amp; " "&amp;C665</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอบ้านธิ ลำพูน</v>
       </c>
     </row>
@@ -38071,7 +38189,7 @@
         <v>381</v>
       </c>
       <c r="D666" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A666 &amp; " "&amp;C666</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเวียงหนองล่อง ลำพูน</v>
       </c>
     </row>
@@ -38086,7 +38204,7 @@
         <v>698</v>
       </c>
       <c r="D667" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A667 &amp; " "&amp;C667</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอนาแห้ว เลย</v>
       </c>
     </row>
@@ -38101,7 +38219,7 @@
         <v>698</v>
       </c>
       <c r="D668" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A668 &amp; " "&amp;C668</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอภูเรือ เลย</v>
       </c>
     </row>
@@ -38116,7 +38234,7 @@
         <v>698</v>
       </c>
       <c r="D669" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A669 &amp; " "&amp;C669</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอท่าลี่ เลย</v>
       </c>
     </row>
@@ -38131,7 +38249,7 @@
         <v>698</v>
       </c>
       <c r="D670" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A670 &amp; " "&amp;C670</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอวังสะพุง เลย</v>
       </c>
     </row>
@@ -38146,7 +38264,7 @@
         <v>698</v>
       </c>
       <c r="D671" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A671 &amp; " "&amp;C671</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอภูกระดึง เลย</v>
       </c>
     </row>
@@ -38161,7 +38279,7 @@
         <v>698</v>
       </c>
       <c r="D672" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A672 &amp; " "&amp;C672</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอภูหลวง เลย</v>
       </c>
     </row>
@@ -38176,7 +38294,7 @@
         <v>698</v>
       </c>
       <c r="D673" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A673 &amp; " "&amp;C673</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอผาขาว เลย</v>
       </c>
     </row>
@@ -38191,7 +38309,7 @@
         <v>698</v>
       </c>
       <c r="D674" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A674 &amp; " "&amp;C674</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเอราวัณ เลย</v>
       </c>
     </row>
@@ -38206,7 +38324,7 @@
         <v>698</v>
       </c>
       <c r="D675" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A675 &amp; " "&amp;C675</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอหนองหิน เลย</v>
       </c>
     </row>
@@ -38221,7 +38339,7 @@
         <v>698</v>
       </c>
       <c r="D676" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A676 &amp; " "&amp;C676</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเมืองเลย เลย</v>
       </c>
     </row>
@@ -38236,7 +38354,7 @@
         <v>698</v>
       </c>
       <c r="D677" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A677 &amp; " "&amp;C677</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอนาด้วง เลย</v>
       </c>
     </row>
@@ -38251,7 +38369,7 @@
         <v>698</v>
       </c>
       <c r="D678" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A678 &amp; " "&amp;C678</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเชียงคาน เลย</v>
       </c>
     </row>
@@ -38266,7 +38384,7 @@
         <v>698</v>
       </c>
       <c r="D679" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A679 &amp; " "&amp;C679</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอปากชม เลย</v>
       </c>
     </row>
@@ -38281,7 +38399,7 @@
         <v>698</v>
       </c>
       <c r="D680" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A680 &amp; " "&amp;C680</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอด่านซ้าย เลย</v>
       </c>
     </row>
@@ -38296,7 +38414,7 @@
         <v>740</v>
       </c>
       <c r="D681" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A681 &amp; " "&amp;C681</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเมืองศรีสะเกษ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38311,7 +38429,7 @@
         <v>740</v>
       </c>
       <c r="D682" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A682 &amp; " "&amp;C682</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอน้ำเกลี้ยง ศรีสะเกษ</v>
       </c>
     </row>
@@ -38326,7 +38444,7 @@
         <v>740</v>
       </c>
       <c r="D683" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A683 &amp; " "&amp;C683</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอวังหิน ศรีสะเกษ</v>
       </c>
     </row>
@@ -38341,7 +38459,7 @@
         <v>740</v>
       </c>
       <c r="D684" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A684 &amp; " "&amp;C684</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอภูสิงห์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38356,7 +38474,7 @@
         <v>740</v>
       </c>
       <c r="D685" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A685 &amp; " "&amp;C685</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเมืองจันทร์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38371,7 +38489,7 @@
         <v>740</v>
       </c>
       <c r="D686" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A686 &amp; " "&amp;C686</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเบญจลักษ์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38386,7 +38504,7 @@
         <v>740</v>
       </c>
       <c r="D687" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A687 &amp; " "&amp;C687</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอพยุห์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38401,7 +38519,7 @@
         <v>740</v>
       </c>
       <c r="D688" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A688 &amp; " "&amp;C688</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอโพธิ์ศรีสุวรรณ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38416,7 +38534,7 @@
         <v>740</v>
       </c>
       <c r="D689" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A689 &amp; " "&amp;C689</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอศิลาลาด ศรีสะเกษ</v>
       </c>
     </row>
@@ -38431,7 +38549,7 @@
         <v>740</v>
       </c>
       <c r="D690" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A690 &amp; " "&amp;C690</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอยางชุมน้อย ศรีสะเกษ</v>
       </c>
     </row>
@@ -38446,7 +38564,7 @@
         <v>740</v>
       </c>
       <c r="D691" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A691 &amp; " "&amp;C691</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอกันทรารมย์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38461,7 +38579,7 @@
         <v>740</v>
       </c>
       <c r="D692" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A692 &amp; " "&amp;C692</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอกันทรลักษ์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38476,7 +38594,7 @@
         <v>740</v>
       </c>
       <c r="D693" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A693 &amp; " "&amp;C693</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอขุขันธ์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38491,7 +38609,7 @@
         <v>740</v>
       </c>
       <c r="D694" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A694 &amp; " "&amp;C694</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอไพรบึง ศรีสะเกษ</v>
       </c>
     </row>
@@ -38506,7 +38624,7 @@
         <v>740</v>
       </c>
       <c r="D695" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A695 &amp; " "&amp;C695</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอปรางค์กู่ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38521,7 +38639,7 @@
         <v>740</v>
       </c>
       <c r="D696" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A696 &amp; " "&amp;C696</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอขุนหาญ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38536,7 +38654,7 @@
         <v>740</v>
       </c>
       <c r="D697" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A697 &amp; " "&amp;C697</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอราษีไศล ศรีสะเกษ</v>
       </c>
     </row>
@@ -38551,7 +38669,7 @@
         <v>740</v>
       </c>
       <c r="D698" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A698 &amp; " "&amp;C698</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภออุทุมพรพิสัย ศรีสะเกษ</v>
       </c>
     </row>
@@ -38566,7 +38684,7 @@
         <v>740</v>
       </c>
       <c r="D699" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A699 &amp; " "&amp;C699</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอบึงบูรพ์ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38581,7 +38699,7 @@
         <v>740</v>
       </c>
       <c r="D700" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A700 &amp; " "&amp;C700</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอห้วยทับทัน ศรีสะเกษ</v>
       </c>
     </row>
@@ -38596,7 +38714,7 @@
         <v>740</v>
       </c>
       <c r="D701" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A701 &amp; " "&amp;C701</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอโนนคูณ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38611,7 +38729,7 @@
         <v>740</v>
       </c>
       <c r="D702" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A702 &amp; " "&amp;C702</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอศรีรัตนะ ศรีสะเกษ</v>
       </c>
     </row>
@@ -38626,7 +38744,7 @@
         <v>810</v>
       </c>
       <c r="D703" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A703 &amp; " "&amp;C703</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอเมืองสกลนคร สกลนคร</v>
       </c>
     </row>
@@ -38641,7 +38759,7 @@
         <v>810</v>
       </c>
       <c r="D704" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A704 &amp; " "&amp;C704</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอกุสุมาลย์ สกลนคร</v>
       </c>
     </row>
@@ -38656,7 +38774,7 @@
         <v>810</v>
       </c>
       <c r="D705" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A705 &amp; " "&amp;C705</f>
+        <f t="shared" si="10"/>
         <v>ที่ว่าการอำเภอกุดบาก สกลนคร</v>
       </c>
     </row>
@@ -38671,7 +38789,7 @@
         <v>810</v>
       </c>
       <c r="D706" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A706 &amp; " "&amp;C706</f>
+        <f t="shared" ref="D706:D769" si="11">"ที่ว่าการอำเภอ"&amp;A706 &amp; " "&amp;C706</f>
         <v>ที่ว่าการอำเภอพรรณานิคม สกลนคร</v>
       </c>
     </row>
@@ -38686,7 +38804,7 @@
         <v>810</v>
       </c>
       <c r="D707" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A707 &amp; " "&amp;C707</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอพังโคน สกลนคร</v>
       </c>
     </row>
@@ -38701,7 +38819,7 @@
         <v>810</v>
       </c>
       <c r="D708" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A708 &amp; " "&amp;C708</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอวาริชภูมิ สกลนคร</v>
       </c>
     </row>
@@ -38716,7 +38834,7 @@
         <v>810</v>
       </c>
       <c r="D709" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A709 &amp; " "&amp;C709</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอนิคมน้ำอูน สกลนคร</v>
       </c>
     </row>
@@ -38731,7 +38849,7 @@
         <v>810</v>
       </c>
       <c r="D710" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A710 &amp; " "&amp;C710</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอวานรนิวาส สกลนคร</v>
       </c>
     </row>
@@ -38746,7 +38864,7 @@
         <v>810</v>
       </c>
       <c r="D711" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A711 &amp; " "&amp;C711</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอคำตากล้า สกลนคร</v>
       </c>
     </row>
@@ -38761,7 +38879,7 @@
         <v>810</v>
       </c>
       <c r="D712" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A712 &amp; " "&amp;C712</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอบ้านม่วง สกลนคร</v>
       </c>
     </row>
@@ -38776,7 +38894,7 @@
         <v>810</v>
       </c>
       <c r="D713" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A713 &amp; " "&amp;C713</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภออากาศอำนวย สกลนคร</v>
       </c>
     </row>
@@ -38791,7 +38909,7 @@
         <v>810</v>
       </c>
       <c r="D714" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A714 &amp; " "&amp;C714</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอสว่างแดนดิน สกลนคร</v>
       </c>
     </row>
@@ -38806,7 +38924,7 @@
         <v>810</v>
       </c>
       <c r="D715" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A715 &amp; " "&amp;C715</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอส่องดาว สกลนคร</v>
       </c>
     </row>
@@ -38821,7 +38939,7 @@
         <v>810</v>
       </c>
       <c r="D716" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A716 &amp; " "&amp;C716</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเต่างอย สกลนคร</v>
       </c>
     </row>
@@ -38836,7 +38954,7 @@
         <v>810</v>
       </c>
       <c r="D717" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A717 &amp; " "&amp;C717</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอโคกศรีสุพรรณ สกลนคร</v>
       </c>
     </row>
@@ -38851,7 +38969,7 @@
         <v>810</v>
       </c>
       <c r="D718" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A718 &amp; " "&amp;C718</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเจริญศิลป์ สกลนคร</v>
       </c>
     </row>
@@ -38866,7 +38984,7 @@
         <v>810</v>
       </c>
       <c r="D719" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A719 &amp; " "&amp;C719</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอโพนนาแก้ว สกลนคร</v>
       </c>
     </row>
@@ -38881,7 +38999,7 @@
         <v>810</v>
       </c>
       <c r="D720" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A720 &amp; " "&amp;C720</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอภูพาน สกลนคร</v>
       </c>
     </row>
@@ -38896,7 +39014,7 @@
         <v>532</v>
       </c>
       <c r="D721" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A721 &amp; " "&amp;C721</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเมืองสงขลา สงขลา</v>
       </c>
     </row>
@@ -38911,7 +39029,7 @@
         <v>532</v>
       </c>
       <c r="D722" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A722 &amp; " "&amp;C722</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอสทิงพระ สงขลา</v>
       </c>
     </row>
@@ -38926,7 +39044,7 @@
         <v>532</v>
       </c>
       <c r="D723" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A723 &amp; " "&amp;C723</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอจะนะ สงขลา</v>
       </c>
     </row>
@@ -38941,7 +39059,7 @@
         <v>532</v>
       </c>
       <c r="D724" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A724 &amp; " "&amp;C724</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอนาทวี สงขลา</v>
       </c>
     </row>
@@ -38956,7 +39074,7 @@
         <v>532</v>
       </c>
       <c r="D725" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A725 &amp; " "&amp;C725</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเทพา สงขลา</v>
       </c>
     </row>
@@ -38971,7 +39089,7 @@
         <v>532</v>
       </c>
       <c r="D726" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A726 &amp; " "&amp;C726</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอสะบ้าย้อย สงขลา</v>
       </c>
     </row>
@@ -38986,7 +39104,7 @@
         <v>532</v>
       </c>
       <c r="D727" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A727 &amp; " "&amp;C727</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอกระแสสินธุ์ สงขลา</v>
       </c>
     </row>
@@ -39001,7 +39119,7 @@
         <v>532</v>
       </c>
       <c r="D728" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A728 &amp; " "&amp;C728</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอรัตภูมิ สงขลา</v>
       </c>
     </row>
@@ -39016,7 +39134,7 @@
         <v>532</v>
       </c>
       <c r="D729" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A729 &amp; " "&amp;C729</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอสะเดา สงขลา</v>
       </c>
     </row>
@@ -39031,7 +39149,7 @@
         <v>532</v>
       </c>
       <c r="D730" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A730 &amp; " "&amp;C730</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอหาดใหญ่ สงขลา</v>
       </c>
     </row>
@@ -39046,7 +39164,7 @@
         <v>532</v>
       </c>
       <c r="D731" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A731 &amp; " "&amp;C731</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอระโนด สงขลา</v>
       </c>
     </row>
@@ -39061,7 +39179,7 @@
         <v>532</v>
       </c>
       <c r="D732" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A732 &amp; " "&amp;C732</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอสิงหนคร สงขลา</v>
       </c>
     </row>
@@ -39076,7 +39194,7 @@
         <v>532</v>
       </c>
       <c r="D733" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A733 &amp; " "&amp;C733</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอนาหม่อม สงขลา</v>
       </c>
     </row>
@@ -39091,7 +39209,7 @@
         <v>532</v>
       </c>
       <c r="D734" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A734 &amp; " "&amp;C734</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอควนเนียง สงขลา</v>
       </c>
     </row>
@@ -39106,7 +39224,7 @@
         <v>532</v>
       </c>
       <c r="D735" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A735 &amp; " "&amp;C735</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอบางกล่ำ สงขลา</v>
       </c>
     </row>
@@ -39121,7 +39239,7 @@
         <v>532</v>
       </c>
       <c r="D736" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A736 &amp; " "&amp;C736</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอคลองหอยโข่ง สงขลา</v>
       </c>
     </row>
@@ -39136,7 +39254,7 @@
         <v>445</v>
       </c>
       <c r="D737" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A737 &amp; " "&amp;C737</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอละงู สตูล</v>
       </c>
     </row>
@@ -39151,7 +39269,7 @@
         <v>445</v>
       </c>
       <c r="D738" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A738 &amp; " "&amp;C738</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอทุ่งหว้า สตูล</v>
       </c>
     </row>
@@ -39166,7 +39284,7 @@
         <v>445</v>
       </c>
       <c r="D739" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A739 &amp; " "&amp;C739</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอมะนัง สตูล</v>
       </c>
     </row>
@@ -39181,7 +39299,7 @@
         <v>445</v>
       </c>
       <c r="D740" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A740 &amp; " "&amp;C740</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเมืองสตูล สตูล</v>
       </c>
     </row>
@@ -39196,7 +39314,7 @@
         <v>445</v>
       </c>
       <c r="D741" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A741 &amp; " "&amp;C741</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอควนโดน สตูล</v>
       </c>
     </row>
@@ -39211,7 +39329,7 @@
         <v>445</v>
       </c>
       <c r="D742" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A742 &amp; " "&amp;C742</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอควนกาหลง สตูล</v>
       </c>
     </row>
@@ -39226,7 +39344,7 @@
         <v>445</v>
       </c>
       <c r="D743" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A743 &amp; " "&amp;C743</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอท่าแพ สตูล</v>
       </c>
     </row>
@@ -39241,7 +39359,7 @@
         <v>59</v>
       </c>
       <c r="D744" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A744 &amp; " "&amp;C744</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเมืองสมุทรปราการ สมุทรปราการ</v>
       </c>
     </row>
@@ -39256,7 +39374,7 @@
         <v>59</v>
       </c>
       <c r="D745" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A745 &amp; " "&amp;C745</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอบางบ่อ สมุทรปราการ</v>
       </c>
     </row>
@@ -39271,7 +39389,7 @@
         <v>59</v>
       </c>
       <c r="D746" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A746 &amp; " "&amp;C746</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอบางพลี สมุทรปราการ</v>
       </c>
     </row>
@@ -39286,7 +39404,7 @@
         <v>59</v>
       </c>
       <c r="D747" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A747 &amp; " "&amp;C747</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอพระประแดง สมุทรปราการ</v>
       </c>
     </row>
@@ -39301,7 +39419,7 @@
         <v>59</v>
       </c>
       <c r="D748" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A748 &amp; " "&amp;C748</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอพระสมุทรเจดีย์ สมุทรปราการ</v>
       </c>
     </row>
@@ -39316,7 +39434,7 @@
         <v>59</v>
       </c>
       <c r="D749" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A749 &amp; " "&amp;C749</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอบางเสาธง สมุทรปราการ</v>
       </c>
     </row>
@@ -39331,7 +39449,7 @@
         <v>247</v>
       </c>
       <c r="D750" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A750 &amp; " "&amp;C750</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเมืองสมุทรสงคราม สมุทรสงคราม</v>
       </c>
     </row>
@@ -39346,7 +39464,7 @@
         <v>247</v>
       </c>
       <c r="D751" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A751 &amp; " "&amp;C751</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอบางคนที สมุทรสงคราม</v>
       </c>
     </row>
@@ -39361,7 +39479,7 @@
         <v>247</v>
       </c>
       <c r="D752" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A752 &amp; " "&amp;C752</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภออัมพวา สมุทรสงคราม</v>
       </c>
     </row>
@@ -39376,7 +39494,7 @@
         <v>244</v>
       </c>
       <c r="D753" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A753 &amp; " "&amp;C753</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอกระทุ่มแบน สมุทรสาคร</v>
       </c>
     </row>
@@ -39391,7 +39509,7 @@
         <v>244</v>
       </c>
       <c r="D754" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A754 &amp; " "&amp;C754</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอบ้านแพ้ว สมุทรสาคร</v>
       </c>
     </row>
@@ -39406,7 +39524,7 @@
         <v>244</v>
       </c>
       <c r="D755" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A755 &amp; " "&amp;C755</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเมืองสมุทรสาคร สมุทรสาคร</v>
       </c>
     </row>
@@ -39421,7 +39539,7 @@
         <v>256</v>
       </c>
       <c r="D756" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A756 &amp; " "&amp;C756</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเมืองสระแก้ว สระแก้ว</v>
       </c>
     </row>
@@ -39436,7 +39554,7 @@
         <v>256</v>
       </c>
       <c r="D757" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A757 &amp; " "&amp;C757</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอคลองหาด สระแก้ว</v>
       </c>
     </row>
@@ -39451,7 +39569,7 @@
         <v>256</v>
       </c>
       <c r="D758" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A758 &amp; " "&amp;C758</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอตาพระยา สระแก้ว</v>
       </c>
     </row>
@@ -39466,7 +39584,7 @@
         <v>256</v>
       </c>
       <c r="D759" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A759 &amp; " "&amp;C759</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอวังน้ำเย็น สระแก้ว</v>
       </c>
     </row>
@@ -39481,7 +39599,7 @@
         <v>256</v>
       </c>
       <c r="D760" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A760 &amp; " "&amp;C760</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอวัฒนานคร สระแก้ว</v>
       </c>
     </row>
@@ -39496,7 +39614,7 @@
         <v>256</v>
       </c>
       <c r="D761" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A761 &amp; " "&amp;C761</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภออรัญประเทศ สระแก้ว</v>
       </c>
     </row>
@@ -39511,7 +39629,7 @@
         <v>256</v>
       </c>
       <c r="D762" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A762 &amp; " "&amp;C762</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเขาฉกรรจ์ สระแก้ว</v>
       </c>
     </row>
@@ -39526,7 +39644,7 @@
         <v>256</v>
       </c>
       <c r="D763" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A763 &amp; " "&amp;C763</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอโคกสูง สระแก้ว</v>
       </c>
     </row>
@@ -39541,7 +39659,7 @@
         <v>256</v>
       </c>
       <c r="D764" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A764 &amp; " "&amp;C764</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอวังสมบูรณ์ สระแก้ว</v>
       </c>
     </row>
@@ -39556,7 +39674,7 @@
         <v>102</v>
       </c>
       <c r="D765" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A765 &amp; " "&amp;C765</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเมืองสระบุรี สระบุรี</v>
       </c>
     </row>
@@ -39571,7 +39689,7 @@
         <v>102</v>
       </c>
       <c r="D766" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A766 &amp; " "&amp;C766</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอแก่งคอย สระบุรี</v>
       </c>
     </row>
@@ -39586,7 +39704,7 @@
         <v>102</v>
       </c>
       <c r="D767" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A767 &amp; " "&amp;C767</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอหนองแค สระบุรี</v>
       </c>
     </row>
@@ -39601,7 +39719,7 @@
         <v>102</v>
       </c>
       <c r="D768" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A768 &amp; " "&amp;C768</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอเฉลิมพระเกียรติ สระบุรี</v>
       </c>
     </row>
@@ -39616,7 +39734,7 @@
         <v>102</v>
       </c>
       <c r="D769" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A769 &amp; " "&amp;C769</f>
+        <f t="shared" si="11"/>
         <v>ที่ว่าการอำเภอวิหารแดง สระบุรี</v>
       </c>
     </row>
@@ -39631,7 +39749,7 @@
         <v>102</v>
       </c>
       <c r="D770" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A770 &amp; " "&amp;C770</f>
+        <f t="shared" ref="D770:D833" si="12">"ที่ว่าการอำเภอ"&amp;A770 &amp; " "&amp;C770</f>
         <v>ที่ว่าการอำเภอหนองแซง สระบุรี</v>
       </c>
     </row>
@@ -39646,7 +39764,7 @@
         <v>102</v>
       </c>
       <c r="D771" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A771 &amp; " "&amp;C771</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบ้านหมอ สระบุรี</v>
       </c>
     </row>
@@ -39661,7 +39779,7 @@
         <v>102</v>
       </c>
       <c r="D772" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A772 &amp; " "&amp;C772</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอดอนพุด สระบุรี</v>
       </c>
     </row>
@@ -39676,7 +39794,7 @@
         <v>102</v>
       </c>
       <c r="D773" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A773 &amp; " "&amp;C773</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอหนองโดน สระบุรี</v>
       </c>
     </row>
@@ -39691,7 +39809,7 @@
         <v>102</v>
       </c>
       <c r="D774" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A774 &amp; " "&amp;C774</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอพระพุทธบาท สระบุรี</v>
       </c>
     </row>
@@ -39706,7 +39824,7 @@
         <v>102</v>
       </c>
       <c r="D775" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A775 &amp; " "&amp;C775</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเสาไห้ สระบุรี</v>
       </c>
     </row>
@@ -39721,7 +39839,7 @@
         <v>102</v>
       </c>
       <c r="D776" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A776 &amp; " "&amp;C776</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอมวกเหล็ก สระบุรี</v>
       </c>
     </row>
@@ -39736,7 +39854,7 @@
         <v>102</v>
       </c>
       <c r="D777" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A777 &amp; " "&amp;C777</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอวังม่วง สระบุรี</v>
       </c>
     </row>
@@ -39751,7 +39869,7 @@
         <v>92</v>
       </c>
       <c r="D778" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A778 &amp; " "&amp;C778</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอค่ายบางระจัน สิงห์บุรี</v>
       </c>
     </row>
@@ -39766,7 +39884,7 @@
         <v>92</v>
       </c>
       <c r="D779" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A779 &amp; " "&amp;C779</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอพรหมบุรี สิงห์บุรี</v>
       </c>
     </row>
@@ -39781,7 +39899,7 @@
         <v>92</v>
       </c>
       <c r="D780" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A780 &amp; " "&amp;C780</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเมืองสิงห์บุรี สิงห์บุรี</v>
       </c>
     </row>
@@ -39796,7 +39914,7 @@
         <v>92</v>
       </c>
       <c r="D781" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A781 &amp; " "&amp;C781</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบางระจัน สิงห์บุรี</v>
       </c>
     </row>
@@ -39811,7 +39929,7 @@
         <v>92</v>
       </c>
       <c r="D782" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A782 &amp; " "&amp;C782</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอท่าช้าง สิงห์บุรี</v>
       </c>
     </row>
@@ -39826,7 +39944,7 @@
         <v>92</v>
       </c>
       <c r="D783" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A783 &amp; " "&amp;C783</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภออินทร์บุรี สิงห์บุรี</v>
       </c>
     </row>
@@ -39841,7 +39959,7 @@
         <v>180</v>
       </c>
       <c r="D784" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A784 &amp; " "&amp;C784</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอศรีนคร สุโขทัย</v>
       </c>
     </row>
@@ -39856,7 +39974,7 @@
         <v>180</v>
       </c>
       <c r="D785" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A785 &amp; " "&amp;C785</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอทุ่งเสลี่ยม สุโขทัย</v>
       </c>
     </row>
@@ -39871,7 +39989,7 @@
         <v>180</v>
       </c>
       <c r="D786" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A786 &amp; " "&amp;C786</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเมืองสุโขทัย สุโขทัย</v>
       </c>
     </row>
@@ -39886,7 +40004,7 @@
         <v>180</v>
       </c>
       <c r="D787" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A787 &amp; " "&amp;C787</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบ้านด่านลานหอย สุโขทัย</v>
       </c>
     </row>
@@ -39901,7 +40019,7 @@
         <v>180</v>
       </c>
       <c r="D788" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A788 &amp; " "&amp;C788</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอคีรีมาศ สุโขทัย</v>
       </c>
     </row>
@@ -39916,7 +40034,7 @@
         <v>180</v>
       </c>
       <c r="D789" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A789 &amp; " "&amp;C789</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอกงไกรลาศ สุโขทัย</v>
       </c>
     </row>
@@ -39931,7 +40049,7 @@
         <v>180</v>
       </c>
       <c r="D790" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A790 &amp; " "&amp;C790</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอศรีสัชนาลัย สุโขทัย</v>
       </c>
     </row>
@@ -39946,7 +40064,7 @@
         <v>180</v>
       </c>
       <c r="D791" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A791 &amp; " "&amp;C791</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอศรีสำโรง สุโขทัย</v>
       </c>
     </row>
@@ -39961,7 +40079,7 @@
         <v>180</v>
       </c>
       <c r="D792" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A792 &amp; " "&amp;C792</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอสวรรคโลก สุโขทัย</v>
       </c>
     </row>
@@ -39976,7 +40094,7 @@
         <v>229</v>
       </c>
       <c r="D793" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A793 &amp; " "&amp;C793</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเมืองสุพรรณบุรี สุพรรณบุรี</v>
       </c>
     </row>
@@ -39991,7 +40109,7 @@
         <v>229</v>
       </c>
       <c r="D794" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A794 &amp; " "&amp;C794</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเดิมบางนางบวช สุพรรณบุรี</v>
       </c>
     </row>
@@ -40006,7 +40124,7 @@
         <v>229</v>
       </c>
       <c r="D795" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A795 &amp; " "&amp;C795</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอด่านช้าง สุพรรณบุรี</v>
       </c>
     </row>
@@ -40021,7 +40139,7 @@
         <v>229</v>
       </c>
       <c r="D796" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A796 &amp; " "&amp;C796</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบางปลาม้า สุพรรณบุรี</v>
       </c>
     </row>
@@ -40036,7 +40154,7 @@
         <v>229</v>
       </c>
       <c r="D797" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A797 &amp; " "&amp;C797</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอศรีประจันต์ สุพรรณบุรี</v>
       </c>
     </row>
@@ -40051,7 +40169,7 @@
         <v>229</v>
       </c>
       <c r="D798" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A798 &amp; " "&amp;C798</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอดอนเจดีย์ สุพรรณบุรี</v>
       </c>
     </row>
@@ -40066,7 +40184,7 @@
         <v>229</v>
       </c>
       <c r="D799" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A799 &amp; " "&amp;C799</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอสองพี่น้อง สุพรรณบุรี</v>
       </c>
     </row>
@@ -40081,7 +40199,7 @@
         <v>229</v>
       </c>
       <c r="D800" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A800 &amp; " "&amp;C800</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอสามชุก สุพรรณบุรี</v>
       </c>
     </row>
@@ -40096,7 +40214,7 @@
         <v>229</v>
       </c>
       <c r="D801" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A801 &amp; " "&amp;C801</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภออู่ทอง สุพรรณบุรี</v>
       </c>
     </row>
@@ -40111,7 +40229,7 @@
         <v>229</v>
       </c>
       <c r="D802" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A802 &amp; " "&amp;C802</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอหนองหญ้าไซ สุพรรณบุรี</v>
       </c>
     </row>
@@ -40126,7 +40244,7 @@
         <v>492</v>
       </c>
       <c r="D803" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A803 &amp; " "&amp;C803</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเมืองสุราษฎร์ธานี สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40141,7 +40259,7 @@
         <v>492</v>
       </c>
       <c r="D804" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A804 &amp; " "&amp;C804</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอกาญจนดิษฐ์ สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40156,7 +40274,7 @@
         <v>492</v>
       </c>
       <c r="D805" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A805 &amp; " "&amp;C805</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอดอนสัก สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40171,7 +40289,7 @@
         <v>492</v>
       </c>
       <c r="D806" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A806 &amp; " "&amp;C806</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเกาะสมุย สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40186,7 +40304,7 @@
         <v>492</v>
       </c>
       <c r="D807" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A807 &amp; " "&amp;C807</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเกาะพะงัน สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40201,7 +40319,7 @@
         <v>492</v>
       </c>
       <c r="D808" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A808 &amp; " "&amp;C808</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอไชยา สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40216,7 +40334,7 @@
         <v>492</v>
       </c>
       <c r="D809" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A809 &amp; " "&amp;C809</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอท่าชนะ สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40231,7 +40349,7 @@
         <v>492</v>
       </c>
       <c r="D810" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A810 &amp; " "&amp;C810</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอคีรีรัฐนิคม สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40246,7 +40364,7 @@
         <v>492</v>
       </c>
       <c r="D811" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A811 &amp; " "&amp;C811</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบ้านตาขุน สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40261,7 +40379,7 @@
         <v>492</v>
       </c>
       <c r="D812" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A812 &amp; " "&amp;C812</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอพนม สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40276,7 +40394,7 @@
         <v>492</v>
       </c>
       <c r="D813" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A813 &amp; " "&amp;C813</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอท่าฉาง สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40291,7 +40409,7 @@
         <v>492</v>
       </c>
       <c r="D814" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A814 &amp; " "&amp;C814</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบ้านนาสาร สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40306,7 +40424,7 @@
         <v>492</v>
       </c>
       <c r="D815" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A815 &amp; " "&amp;C815</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอพระแสง สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40321,7 +40439,7 @@
         <v>492</v>
       </c>
       <c r="D816" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A816 &amp; " "&amp;C816</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอพุนพิน สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40336,7 +40454,7 @@
         <v>492</v>
       </c>
       <c r="D817" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A817 &amp; " "&amp;C817</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบ้านนาเดิม สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40351,7 +40469,7 @@
         <v>492</v>
       </c>
       <c r="D818" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A818 &amp; " "&amp;C818</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเคียนซา สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40366,7 +40484,7 @@
         <v>492</v>
       </c>
       <c r="D819" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A819 &amp; " "&amp;C819</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเวียงสระ สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40381,7 +40499,7 @@
         <v>492</v>
       </c>
       <c r="D820" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A820 &amp; " "&amp;C820</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอชัยบุรี สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40396,7 +40514,7 @@
         <v>492</v>
       </c>
       <c r="D821" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A821 &amp; " "&amp;C821</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอวิภาวดี สุราษฎร์ธานี</v>
       </c>
     </row>
@@ -40411,7 +40529,7 @@
         <v>731</v>
       </c>
       <c r="D822" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A822 &amp; " "&amp;C822</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอสำโรงทาบ สุรินทร์</v>
       </c>
     </row>
@@ -40426,7 +40544,7 @@
         <v>731</v>
       </c>
       <c r="D823" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A823 &amp; " "&amp;C823</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอบัวเชด สุรินทร์</v>
       </c>
     </row>
@@ -40441,7 +40559,7 @@
         <v>731</v>
       </c>
       <c r="D824" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A824 &amp; " "&amp;C824</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอพนมดงรัก สุรินทร์</v>
       </c>
     </row>
@@ -40456,7 +40574,7 @@
         <v>731</v>
       </c>
       <c r="D825" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A825 &amp; " "&amp;C825</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอศรีณรงค์ สุรินทร์</v>
       </c>
     </row>
@@ -40471,7 +40589,7 @@
         <v>731</v>
       </c>
       <c r="D826" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A826 &amp; " "&amp;C826</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเขวาสินรินทร์ สุรินทร์</v>
       </c>
     </row>
@@ -40486,7 +40604,7 @@
         <v>731</v>
       </c>
       <c r="D827" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A827 &amp; " "&amp;C827</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอโนนนารายณ์ สุรินทร์</v>
       </c>
     </row>
@@ -40501,7 +40619,7 @@
         <v>731</v>
       </c>
       <c r="D828" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A828 &amp; " "&amp;C828</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอเมืองสุรินทร์ สุรินทร์</v>
       </c>
     </row>
@@ -40516,7 +40634,7 @@
         <v>731</v>
       </c>
       <c r="D829" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A829 &amp; " "&amp;C829</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอชุมพลบุรี สุรินทร์</v>
       </c>
     </row>
@@ -40531,7 +40649,7 @@
         <v>731</v>
       </c>
       <c r="D830" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A830 &amp; " "&amp;C830</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอท่าตูม สุรินทร์</v>
       </c>
     </row>
@@ -40546,7 +40664,7 @@
         <v>731</v>
       </c>
       <c r="D831" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A831 &amp; " "&amp;C831</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอจอมพระ สุรินทร์</v>
       </c>
     </row>
@@ -40561,7 +40679,7 @@
         <v>731</v>
       </c>
       <c r="D832" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A832 &amp; " "&amp;C832</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอปราสาท สุรินทร์</v>
       </c>
     </row>
@@ -40576,7 +40694,7 @@
         <v>731</v>
       </c>
       <c r="D833" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A833 &amp; " "&amp;C833</f>
+        <f t="shared" si="12"/>
         <v>ที่ว่าการอำเภอกาบเชิง สุรินทร์</v>
       </c>
     </row>
@@ -40591,7 +40709,7 @@
         <v>731</v>
       </c>
       <c r="D834" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A834 &amp; " "&amp;C834</f>
+        <f t="shared" ref="D834:D897" si="13">"ที่ว่าการอำเภอ"&amp;A834 &amp; " "&amp;C834</f>
         <v>ที่ว่าการอำเภอรัตนบุรี สุรินทร์</v>
       </c>
     </row>
@@ -40606,7 +40724,7 @@
         <v>731</v>
       </c>
       <c r="D835" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A835 &amp; " "&amp;C835</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอสนม สุรินทร์</v>
       </c>
     </row>
@@ -40621,7 +40739,7 @@
         <v>731</v>
       </c>
       <c r="D836" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A836 &amp; " "&amp;C836</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอศีขรภูมิ สุรินทร์</v>
       </c>
     </row>
@@ -40636,7 +40754,7 @@
         <v>731</v>
       </c>
       <c r="D837" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A837 &amp; " "&amp;C837</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอสังขะ สุรินทร์</v>
       </c>
     </row>
@@ -40651,7 +40769,7 @@
         <v>731</v>
       </c>
       <c r="D838" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A838 &amp; " "&amp;C838</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอลำดวน สุรินทร์</v>
       </c>
     </row>
@@ -40666,7 +40784,7 @@
         <v>712</v>
       </c>
       <c r="D839" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A839 &amp; " "&amp;C839</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเมืองหนองคาย หนองคาย</v>
       </c>
     </row>
@@ -40681,7 +40799,7 @@
         <v>712</v>
       </c>
       <c r="D840" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A840 &amp; " "&amp;C840</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอท่าบ่อ หนองคาย</v>
       </c>
     </row>
@@ -40696,7 +40814,7 @@
         <v>712</v>
       </c>
       <c r="D841" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A841 &amp; " "&amp;C841</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอโพนพิสัย หนองคาย</v>
       </c>
     </row>
@@ -40711,7 +40829,7 @@
         <v>712</v>
       </c>
       <c r="D842" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A842 &amp; " "&amp;C842</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอศรีเชียงใหม่ หนองคาย</v>
       </c>
     </row>
@@ -40726,7 +40844,7 @@
         <v>712</v>
       </c>
       <c r="D843" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A843 &amp; " "&amp;C843</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอสังคม หนองคาย</v>
       </c>
     </row>
@@ -40741,7 +40859,7 @@
         <v>712</v>
       </c>
       <c r="D844" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A844 &amp; " "&amp;C844</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอสระใคร หนองคาย</v>
       </c>
     </row>
@@ -40756,7 +40874,7 @@
         <v>712</v>
       </c>
       <c r="D845" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A845 &amp; " "&amp;C845</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเฝ้าไร่ หนองคาย</v>
       </c>
     </row>
@@ -40771,7 +40889,7 @@
         <v>712</v>
       </c>
       <c r="D846" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A846 &amp; " "&amp;C846</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอรัตนวาปี หนองคาย</v>
       </c>
     </row>
@@ -40786,7 +40904,7 @@
         <v>712</v>
       </c>
       <c r="D847" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A847 &amp; " "&amp;C847</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอโพธิ์ตาก หนองคาย</v>
       </c>
     </row>
@@ -40801,7 +40919,7 @@
         <v>644</v>
       </c>
       <c r="D848" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A848 &amp; " "&amp;C848</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเมืองหนองบัวลำภู หนองบัวลำภู</v>
       </c>
     </row>
@@ -40816,7 +40934,7 @@
         <v>644</v>
       </c>
       <c r="D849" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A849 &amp; " "&amp;C849</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอนากลาง หนองบัวลำภู</v>
       </c>
     </row>
@@ -40831,7 +40949,7 @@
         <v>644</v>
       </c>
       <c r="D850" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A850 &amp; " "&amp;C850</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอโนนสัง หนองบัวลำภู</v>
       </c>
     </row>
@@ -40846,7 +40964,7 @@
         <v>644</v>
       </c>
       <c r="D851" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A851 &amp; " "&amp;C851</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอศรีบุญเรือง หนองบัวลำภู</v>
       </c>
     </row>
@@ -40861,7 +40979,7 @@
         <v>644</v>
       </c>
       <c r="D852" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A852 &amp; " "&amp;C852</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอสุวรรณคูหา หนองบัวลำภู</v>
       </c>
     </row>
@@ -40876,7 +40994,7 @@
         <v>644</v>
       </c>
       <c r="D853" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A853 &amp; " "&amp;C853</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอนาวัง หนองบัวลำภู</v>
       </c>
     </row>
@@ -40891,7 +41009,7 @@
         <v>76</v>
       </c>
       <c r="D854" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A854 &amp; " "&amp;C854</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอป่าโมก อ่างทอง</v>
       </c>
     </row>
@@ -40906,7 +41024,7 @@
         <v>76</v>
       </c>
       <c r="D855" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A855 &amp; " "&amp;C855</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอโพธิ์ทอง อ่างทอง</v>
       </c>
     </row>
@@ -40921,7 +41039,7 @@
         <v>76</v>
       </c>
       <c r="D856" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A856 &amp; " "&amp;C856</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอแสวงหา อ่างทอง</v>
       </c>
     </row>
@@ -40936,7 +41054,7 @@
         <v>76</v>
       </c>
       <c r="D857" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A857 &amp; " "&amp;C857</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอวิเศษชัยชาญ อ่างทอง</v>
       </c>
     </row>
@@ -40951,7 +41069,7 @@
         <v>76</v>
       </c>
       <c r="D858" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A858 &amp; " "&amp;C858</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอสามโก้ อ่างทอง</v>
       </c>
     </row>
@@ -40966,7 +41084,7 @@
         <v>76</v>
       </c>
       <c r="D859" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A859 &amp; " "&amp;C859</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเมืองอ่างทอง อ่างทอง</v>
       </c>
     </row>
@@ -40981,7 +41099,7 @@
         <v>76</v>
       </c>
       <c r="D860" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A860 &amp; " "&amp;C860</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอไชโย อ่างทอง</v>
       </c>
     </row>
@@ -40996,7 +41114,7 @@
         <v>902</v>
       </c>
       <c r="D861" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A861 &amp; " "&amp;C861</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเมืองอำนาจเจริญ อำนาจเจริญ</v>
       </c>
     </row>
@@ -41011,7 +41129,7 @@
         <v>902</v>
       </c>
       <c r="D862" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A862 &amp; " "&amp;C862</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอชานุมาน อำนาจเจริญ</v>
       </c>
     </row>
@@ -41026,7 +41144,7 @@
         <v>902</v>
       </c>
       <c r="D863" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A863 &amp; " "&amp;C863</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอปทุมราชวงศา อำนาจเจริญ</v>
       </c>
     </row>
@@ -41041,7 +41159,7 @@
         <v>902</v>
       </c>
       <c r="D864" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A864 &amp; " "&amp;C864</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอพนา อำนาจเจริญ</v>
       </c>
     </row>
@@ -41056,7 +41174,7 @@
         <v>902</v>
       </c>
       <c r="D865" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A865 &amp; " "&amp;C865</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเสนางคนิคม อำนาจเจริญ</v>
       </c>
     </row>
@@ -41071,7 +41189,7 @@
         <v>902</v>
       </c>
       <c r="D866" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A866 &amp; " "&amp;C866</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอหัวตะพาน อำนาจเจริญ</v>
       </c>
     </row>
@@ -41086,7 +41204,7 @@
         <v>902</v>
       </c>
       <c r="D867" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A867 &amp; " "&amp;C867</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอลืออำนาจ อำนาจเจริญ</v>
       </c>
     </row>
@@ -41101,7 +41219,7 @@
         <v>677</v>
       </c>
       <c r="D868" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A868 &amp; " "&amp;C868</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเมืองอุดรธานี อุดรธานี</v>
       </c>
     </row>
@@ -41116,7 +41234,7 @@
         <v>677</v>
       </c>
       <c r="D869" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A869 &amp; " "&amp;C869</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอกุดจับ อุดรธานี</v>
       </c>
     </row>
@@ -41131,7 +41249,7 @@
         <v>677</v>
       </c>
       <c r="D870" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A870 &amp; " "&amp;C870</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอหนองวัวซอ อุดรธานี</v>
       </c>
     </row>
@@ -41146,7 +41264,7 @@
         <v>677</v>
       </c>
       <c r="D871" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A871 &amp; " "&amp;C871</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอกุมภวาปี อุดรธานี</v>
       </c>
     </row>
@@ -41161,7 +41279,7 @@
         <v>677</v>
       </c>
       <c r="D872" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A872 &amp; " "&amp;C872</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอโนนสะอาด อุดรธานี</v>
       </c>
     </row>
@@ -41176,7 +41294,7 @@
         <v>677</v>
       </c>
       <c r="D873" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A873 &amp; " "&amp;C873</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอหนองหาน อุดรธานี</v>
       </c>
     </row>
@@ -41191,7 +41309,7 @@
         <v>677</v>
       </c>
       <c r="D874" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A874 &amp; " "&amp;C874</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอทุ่งฝน อุดรธานี</v>
       </c>
     </row>
@@ -41206,7 +41324,7 @@
         <v>677</v>
       </c>
       <c r="D875" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A875 &amp; " "&amp;C875</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอไชยวาน อุดรธานี</v>
       </c>
     </row>
@@ -41221,7 +41339,7 @@
         <v>677</v>
       </c>
       <c r="D876" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A876 &amp; " "&amp;C876</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอศรีธาตุ อุดรธานี</v>
       </c>
     </row>
@@ -41236,7 +41354,7 @@
         <v>677</v>
       </c>
       <c r="D877" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A877 &amp; " "&amp;C877</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอวังสามหมอ อุดรธานี</v>
       </c>
     </row>
@@ -41251,7 +41369,7 @@
         <v>677</v>
       </c>
       <c r="D878" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A878 &amp; " "&amp;C878</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอบ้านดุง อุดรธานี</v>
       </c>
     </row>
@@ -41266,7 +41384,7 @@
         <v>677</v>
       </c>
       <c r="D879" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A879 &amp; " "&amp;C879</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอบ้านผือ อุดรธานี</v>
       </c>
     </row>
@@ -41281,7 +41399,7 @@
         <v>677</v>
       </c>
       <c r="D880" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A880 &amp; " "&amp;C880</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอน้ำโสม อุดรธานี</v>
       </c>
     </row>
@@ -41296,7 +41414,7 @@
         <v>677</v>
       </c>
       <c r="D881" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A881 &amp; " "&amp;C881</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเพ็ญ อุดรธานี</v>
       </c>
     </row>
@@ -41311,7 +41429,7 @@
         <v>677</v>
       </c>
       <c r="D882" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A882 &amp; " "&amp;C882</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอสร้างคอม อุดรธานี</v>
       </c>
     </row>
@@ -41326,7 +41444,7 @@
         <v>677</v>
       </c>
       <c r="D883" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A883 &amp; " "&amp;C883</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอหนองแสง อุดรธานี</v>
       </c>
     </row>
@@ -41341,7 +41459,7 @@
         <v>677</v>
       </c>
       <c r="D884" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A884 &amp; " "&amp;C884</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอนายูง อุดรธานี</v>
       </c>
     </row>
@@ -41356,7 +41474,7 @@
         <v>677</v>
       </c>
       <c r="D885" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A885 &amp; " "&amp;C885</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอพิบูลย์รักษ์ อุดรธานี</v>
       </c>
     </row>
@@ -41371,7 +41489,7 @@
         <v>677</v>
       </c>
       <c r="D886" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A886 &amp; " "&amp;C886</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอกู่แก้ว อุดรธานี</v>
       </c>
     </row>
@@ -41386,7 +41504,7 @@
         <v>677</v>
       </c>
       <c r="D887" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A887 &amp; " "&amp;C887</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอประจักษ์ศิลปาคม อุดรธานี</v>
       </c>
     </row>
@@ -41401,7 +41519,7 @@
         <v>407</v>
       </c>
       <c r="D888" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A888 &amp; " "&amp;C888</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเมืองอุตรดิตถ์ อุตรดิตถ์</v>
       </c>
     </row>
@@ -41416,7 +41534,7 @@
         <v>407</v>
       </c>
       <c r="D889" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A889 &amp; " "&amp;C889</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอตรอน อุตรดิตถ์</v>
       </c>
     </row>
@@ -41431,7 +41549,7 @@
         <v>407</v>
       </c>
       <c r="D890" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A890 &amp; " "&amp;C890</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอท่าปลา อุตรดิตถ์</v>
       </c>
     </row>
@@ -41446,7 +41564,7 @@
         <v>407</v>
       </c>
       <c r="D891" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A891 &amp; " "&amp;C891</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอน้ำปาด อุตรดิตถ์</v>
       </c>
     </row>
@@ -41461,7 +41579,7 @@
         <v>407</v>
       </c>
       <c r="D892" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A892 &amp; " "&amp;C892</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอฟากท่า อุตรดิตถ์</v>
       </c>
     </row>
@@ -41476,7 +41594,7 @@
         <v>407</v>
       </c>
       <c r="D893" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A893 &amp; " "&amp;C893</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอบ้านโคก อุตรดิตถ์</v>
       </c>
     </row>
@@ -41491,7 +41609,7 @@
         <v>407</v>
       </c>
       <c r="D894" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A894 &amp; " "&amp;C894</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอพิชัย อุตรดิตถ์</v>
       </c>
     </row>
@@ -41506,7 +41624,7 @@
         <v>407</v>
       </c>
       <c r="D895" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A895 &amp; " "&amp;C895</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอลับแล อุตรดิตถ์</v>
       </c>
     </row>
@@ -41521,7 +41639,7 @@
         <v>407</v>
       </c>
       <c r="D896" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A896 &amp; " "&amp;C896</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอทองแสนขัน อุตรดิตถ์</v>
       </c>
     </row>
@@ -41536,7 +41654,7 @@
         <v>163</v>
       </c>
       <c r="D897" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A897 &amp; " "&amp;C897</f>
+        <f t="shared" si="13"/>
         <v>ที่ว่าการอำเภอเมืองอุทัยธานี อุทัยธานี</v>
       </c>
     </row>
@@ -41551,7 +41669,7 @@
         <v>163</v>
       </c>
       <c r="D898" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A898 &amp; " "&amp;C898</f>
+        <f t="shared" ref="D898:D961" si="14">"ที่ว่าการอำเภอ"&amp;A898 &amp; " "&amp;C898</f>
         <v>ที่ว่าการอำเภอทัพทัน อุทัยธานี</v>
       </c>
     </row>
@@ -41566,7 +41684,7 @@
         <v>163</v>
       </c>
       <c r="D899" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A899 &amp; " "&amp;C899</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอสว่างอารมณ์ อุทัยธานี</v>
       </c>
     </row>
@@ -41581,7 +41699,7 @@
         <v>163</v>
       </c>
       <c r="D900" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A900 &amp; " "&amp;C900</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอหนองฉาง อุทัยธานี</v>
       </c>
     </row>
@@ -41596,7 +41714,7 @@
         <v>163</v>
       </c>
       <c r="D901" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A901 &amp; " "&amp;C901</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอหนองขาหย่าง อุทัยธานี</v>
       </c>
     </row>
@@ -41611,7 +41729,7 @@
         <v>163</v>
       </c>
       <c r="D902" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A902 &amp; " "&amp;C902</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอบ้านไร่ อุทัยธานี</v>
       </c>
     </row>
@@ -41626,7 +41744,7 @@
         <v>163</v>
       </c>
       <c r="D903" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A903 &amp; " "&amp;C903</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอลานสัก อุทัยธานี</v>
       </c>
     </row>
@@ -41641,7 +41759,7 @@
         <v>163</v>
       </c>
       <c r="D904" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A904 &amp; " "&amp;C904</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอห้วยคต อุทัยธานี</v>
       </c>
     </row>
@@ -41656,7 +41774,7 @@
         <v>754</v>
       </c>
       <c r="D905" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A905 &amp; " "&amp;C905</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอเมืองอุบลราชธานี อุบลราชธานี</v>
       </c>
     </row>
@@ -41671,7 +41789,7 @@
         <v>754</v>
       </c>
       <c r="D906" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A906 &amp; " "&amp;C906</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอศรีเมืองใหม่ อุบลราชธานี</v>
       </c>
     </row>
@@ -41686,7 +41804,7 @@
         <v>754</v>
       </c>
       <c r="D907" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A907 &amp; " "&amp;C907</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอโขงเจียม อุบลราชธานี</v>
       </c>
     </row>
@@ -41701,7 +41819,7 @@
         <v>754</v>
       </c>
       <c r="D908" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A908 &amp; " "&amp;C908</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอเขื่องใน อุบลราชธานี</v>
       </c>
     </row>
@@ -41716,7 +41834,7 @@
         <v>754</v>
       </c>
       <c r="D909" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A909 &amp; " "&amp;C909</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอเขมราฐ อุบลราชธานี</v>
       </c>
     </row>
@@ -41731,7 +41849,7 @@
         <v>754</v>
       </c>
       <c r="D910" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A910 &amp; " "&amp;C910</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอเดชอุดม อุบลราชธานี</v>
       </c>
     </row>
@@ -41746,7 +41864,7 @@
         <v>754</v>
       </c>
       <c r="D911" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A911 &amp; " "&amp;C911</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอนาจะหลวย อุบลราชธานี</v>
       </c>
     </row>
@@ -41761,7 +41879,7 @@
         <v>754</v>
       </c>
       <c r="D912" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A912 &amp; " "&amp;C912</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอน้ำยืน อุบลราชธานี</v>
       </c>
     </row>
@@ -41776,7 +41894,7 @@
         <v>754</v>
       </c>
       <c r="D913" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A913 &amp; " "&amp;C913</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอบุณฑริก อุบลราชธานี</v>
       </c>
     </row>
@@ -41791,7 +41909,7 @@
         <v>754</v>
       </c>
       <c r="D914" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A914 &amp; " "&amp;C914</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอตระการพืชผล อุบลราชธานี</v>
       </c>
     </row>
@@ -41806,7 +41924,7 @@
         <v>754</v>
       </c>
       <c r="D915" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A915 &amp; " "&amp;C915</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอกุดข้าวปุ้น อุบลราชธานี</v>
       </c>
     </row>
@@ -41821,7 +41939,7 @@
         <v>754</v>
       </c>
       <c r="D916" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A916 &amp; " "&amp;C916</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอม่วงสามสิบ อุบลราชธานี</v>
       </c>
     </row>
@@ -41836,7 +41954,7 @@
         <v>754</v>
       </c>
       <c r="D917" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A917 &amp; " "&amp;C917</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอวารินชำราบ อุบลราชธานี</v>
       </c>
     </row>
@@ -41851,7 +41969,7 @@
         <v>754</v>
       </c>
       <c r="D918" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A918 &amp; " "&amp;C918</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอพิบูลมังสาหาร อุบลราชธานี</v>
       </c>
     </row>
@@ -41866,7 +41984,7 @@
         <v>754</v>
       </c>
       <c r="D919" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A919 &amp; " "&amp;C919</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอตาลสุม อุบลราชธานี</v>
       </c>
     </row>
@@ -41881,7 +41999,7 @@
         <v>754</v>
       </c>
       <c r="D920" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A920 &amp; " "&amp;C920</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอโพธิ์ไทร อุบลราชธานี</v>
       </c>
     </row>
@@ -41896,7 +42014,7 @@
         <v>754</v>
       </c>
       <c r="D921" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A921 &amp; " "&amp;C921</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอสำโรง อุบลราชธานี</v>
       </c>
     </row>
@@ -41911,7 +42029,7 @@
         <v>754</v>
       </c>
       <c r="D922" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A922 &amp; " "&amp;C922</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอดอนมดแดง อุบลราชธานี</v>
       </c>
     </row>
@@ -41926,7 +42044,7 @@
         <v>754</v>
       </c>
       <c r="D923" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A923 &amp; " "&amp;C923</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอสิรินธร อุบลราชธานี</v>
       </c>
     </row>
@@ -41941,7 +42059,7 @@
         <v>754</v>
       </c>
       <c r="D924" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A924 &amp; " "&amp;C924</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอทุ่งศรีอุดม อุบลราชธานี</v>
       </c>
     </row>
@@ -41956,7 +42074,7 @@
         <v>754</v>
       </c>
       <c r="D925" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A925 &amp; " "&amp;C925</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอนาเยีย อุบลราชธานี</v>
       </c>
     </row>
@@ -41971,7 +42089,7 @@
         <v>754</v>
       </c>
       <c r="D926" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A926 &amp; " "&amp;C926</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอสว่างวีระวงศ์ อุบลราชธานี</v>
       </c>
     </row>
@@ -41986,7 +42104,7 @@
         <v>754</v>
       </c>
       <c r="D927" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A927 &amp; " "&amp;C927</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอน้ำขุ่น อุบลราชธานี</v>
       </c>
     </row>
@@ -42001,7 +42119,7 @@
         <v>754</v>
       </c>
       <c r="D928" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A928 &amp; " "&amp;C928</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอนาตาล อุบลราชธานี</v>
       </c>
     </row>
@@ -42016,7 +42134,7 @@
         <v>754</v>
       </c>
       <c r="D929" t="str">
-        <f>"ที่ว่าการอำเภอ"&amp;A929 &amp; " "&amp;C929</f>
+        <f t="shared" si="14"/>
         <v>ที่ว่าการอำเภอเหล่าเสือโก้ก อุบลราชธานี</v>
       </c>
     </row>
@@ -42029,8 +42147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F0EDFF-B8A6-434E-ADC2-6252BCE90D58}">
   <dimension ref="A1:J929"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42425,16 +42543,16 @@
         <v>Phra Nakhon</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f>"ที่ว่าการอำเภอ"&amp;A10 &amp; " "&amp;C10</f>
         <v>ที่ว่าการอำเภอพระนคร กรุงเทพมหานคร</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="str">
         <f>VLOOKUP(H10, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
+        <v>13.765096200668543</v>
+      </c>
+      <c r="J10" t="str">
         <f>VLOOKUP(H10, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.49935721120431</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -42468,13 +42586,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอดุสิต กรุงเทพมหานคร</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="str">
         <f>VLOOKUP(H11, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J11">
+        <v>13.777345569576957</v>
+      </c>
+      <c r="J11" t="str">
         <f>VLOOKUP(H11, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.52093624797357</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -42508,13 +42626,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอบางรัก กรุงเทพมหานคร</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="str">
         <f>VLOOKUP(H12, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
+        <v>13.730903075589106</v>
+      </c>
+      <c r="J12" t="str">
         <f>VLOOKUP(H12, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.5235481693973</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -42548,13 +42666,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอพญาไท กรุงเทพมหานคร</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="str">
         <f>VLOOKUP(H13, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
+        <v>13.779998407203031</v>
+      </c>
+      <c r="J13" t="str">
         <f>VLOOKUP(H13, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.54271621357861</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -42588,13 +42706,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอหนองจอก กรุงเทพมหานคร</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="str">
         <f>VLOOKUP(H14, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J14">
+        <v>13.855727552946405</v>
+      </c>
+      <c r="J14" t="str">
         <f>VLOOKUP(H14, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.86262861357989</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -42628,13 +42746,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอคลองเตย กรุงเทพมหานคร</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="str">
         <f>VLOOKUP(H15, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J15">
+        <v>13.708316681521428</v>
+      </c>
+      <c r="J15" t="str">
         <f>VLOOKUP(H15, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.58374911172466</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -42668,13 +42786,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอบางเขน กรุงเทพมหานคร</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="str">
         <f>VLOOKUP(H16, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
+        <v>13.873676020006384</v>
+      </c>
+      <c r="J16" t="str">
         <f>VLOOKUP(H16, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.59662351968223</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -42708,13 +42826,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอพระโขนง กรุงเทพมหานคร</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="str">
         <f>VLOOKUP(H17, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
+        <v>13.702658132757334</v>
+      </c>
+      <c r="J17" t="str">
         <f>VLOOKUP(H17, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.60205691172463</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -42748,13 +42866,13 @@
         <f t="shared" si="1"/>
         <v>ที่ว่าการอำเภอบางกะปิ กรุงเทพมหานคร</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="str">
         <f>VLOOKUP(H18, 'Office Location'!D:G, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
+        <v>13.765991079203733</v>
+      </c>
+      <c r="J18" t="str">
         <f>VLOOKUP(H18, 'Office Location'!D:G, 4, FALSE)</f>
-        <v>0</v>
+        <v>100.6474855828894</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
